--- a/Decoration Budget/徐泽彬 装修预算表 有产品链接.xlsx
+++ b/Decoration Budget/徐泽彬 装修预算表 有产品链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25763" windowHeight="13740"/>
+    <workbookView windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="14" r:id="rId1"/>
@@ -828,12 +828,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,32 +886,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -930,54 +940,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -990,6 +958,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1012,13 +988,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1026,12 +1001,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1061,18 +1054,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1085,7 +1066,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,25 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,19 +1192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,43 +1204,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,43 +1234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,20 +1263,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,17 +1293,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,7 +1308,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,177 +1343,169 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1725,8 +1718,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8454390" y="0"/>
-          <a:ext cx="11319510" cy="2623185"/>
+          <a:off x="9342755" y="0"/>
+          <a:ext cx="12622530" cy="2463165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1762,8 +1755,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2588895" y="4206240"/>
-          <a:ext cx="304800" cy="316230"/>
+          <a:off x="2876550" y="3943350"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,8 +1803,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3188970" y="4206240"/>
-          <a:ext cx="5582920" cy="4300855"/>
+          <a:off x="3543300" y="3943350"/>
+          <a:ext cx="6191250" cy="4037965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1855,8 +1848,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7452360" y="3481705"/>
-          <a:ext cx="7110095" cy="4382135"/>
+          <a:off x="8277860" y="3264535"/>
+          <a:ext cx="7884795" cy="4107815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1910,8 +1903,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8892540"/>
-          <a:ext cx="6879590" cy="6873240"/>
+          <a:off x="0" y="8343900"/>
+          <a:ext cx="7526020" cy="6438900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1965,8 +1958,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7424420" y="9046845"/>
-          <a:ext cx="6438265" cy="7728585"/>
+          <a:off x="8249920" y="8486775"/>
+          <a:ext cx="7144385" cy="7248525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2020,8 +2013,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17516475"/>
-          <a:ext cx="6498590" cy="9067800"/>
+          <a:off x="0" y="16449675"/>
+          <a:ext cx="7145020" cy="8496300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2079,8 +2072,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3718560"/>
-          <a:ext cx="5445760" cy="4029075"/>
+          <a:off x="0" y="3489960"/>
+          <a:ext cx="6028055" cy="3777615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2123,8 +2116,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7241540" y="3664585"/>
-          <a:ext cx="6616700" cy="4408170"/>
+          <a:off x="8036560" y="3435985"/>
+          <a:ext cx="7302500" cy="4133850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2167,8 +2160,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8334375"/>
-          <a:ext cx="6667500" cy="4505325"/>
+          <a:off x="0" y="7820025"/>
+          <a:ext cx="7249795" cy="4219575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2211,8 +2204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6771640" y="7391400"/>
-          <a:ext cx="6894195" cy="5389880"/>
+          <a:off x="7353935" y="6934200"/>
+          <a:ext cx="7792720" cy="5058410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2255,8 +2248,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="12742545"/>
-          <a:ext cx="6419850" cy="4168140"/>
+          <a:off x="323850" y="11953875"/>
+          <a:ext cx="7002145" cy="3905250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2299,8 +2292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6371590" y="13426440"/>
-          <a:ext cx="5633085" cy="3465195"/>
+          <a:off x="6953885" y="12592050"/>
+          <a:ext cx="6325870" cy="3248025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2343,8 +2336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="16977360"/>
-          <a:ext cx="4810125" cy="3966210"/>
+          <a:off x="171450" y="15925800"/>
+          <a:ext cx="5325745" cy="3714750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2645,15 +2638,15 @@
   <sheetPr/>
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="100.62962962963" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="100.633333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3133,7 +3126,7 @@
       <c r="F26" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="23" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3173,7 +3166,7 @@
       <c r="F28" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3196,7 +3189,7 @@
       <c r="F29" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3628,7 +3621,7 @@
       <c r="E53">
         <v>1300</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="23" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3754,7 +3747,7 @@
       <c r="E59">
         <v>2700</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="23" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4134,7 +4127,7 @@
       <c r="E79">
         <v>1800</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G79" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5023,14 +5016,14 @@
       <selection activeCell="J1" sqref="J$1:L$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.25" style="3" customWidth="1"/>
     <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="10.3796296296296" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.3833333333333" style="3" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="3"/>
-    <col min="8" max="8" width="10.3796296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.3833333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5628,16 +5621,16 @@
       <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="3"/>
     <col min="2" max="2" width="20.25" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.75" style="3"/>
-    <col min="5" max="5" width="10.3796296296296" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.3833333333333" style="3" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="3"/>
-    <col min="8" max="8" width="10.3796296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.3833333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.6296296296296" customWidth="1"/>
+    <col min="15" max="15" width="11.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -6140,7 +6133,7 @@
     <row r="50" spans="2:2">
       <c r="B50"/>
     </row>
-    <row r="95" ht="17.4" spans="1:3">
+    <row r="95" ht="18" spans="1:3">
       <c r="A95" s="20" t="s">
         <v>235</v>
       </c>
@@ -6181,13 +6174,13 @@
       <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1296296296296" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.1333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="3" customWidth="1"/>
     <col min="3" max="5" width="9" style="3"/>
     <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="18.8796296296296" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.8833333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -6805,16 +6798,16 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.1296296296296" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1333333333333" style="3" customWidth="1"/>
     <col min="3" max="5" width="9" style="3"/>
     <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="15.1296296296296" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.1333333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -7321,12 +7314,12 @@
       <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="3"/>
-    <col min="2" max="2" width="15.1296296296296" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1333333333333" style="3" customWidth="1"/>
     <col min="3" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="27.8796296296296" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.8833333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -7753,14 +7746,14 @@
       <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="3"/>
-    <col min="2" max="2" width="18.1296296296296" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.1333333333333" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="3"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="15.1296296296296" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.1333333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -8098,7 +8091,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" ht="24" spans="1:7">
+    <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>245</v>
       </c>
@@ -8126,7 +8119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" ht="24" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>246</v>
       </c>
@@ -8181,7 +8174,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" ht="36" spans="1:7">
+    <row r="35" ht="24" spans="1:7">
       <c r="A35" s="16" t="s">
         <v>248</v>
       </c>
@@ -8237,7 +8230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" ht="24" spans="1:7">
+    <row r="37" spans="1:7">
       <c r="A37" s="16" t="s">
         <v>250</v>
       </c>
@@ -8343,14 +8336,14 @@
       <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="3"/>
     <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.75" style="3"/>
     <col min="5" max="5" width="8.75" style="3" customWidth="1"/>
     <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="15.1296296296296" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.1333333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -8944,13 +8937,13 @@
       <selection activeCell="J4" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="15.1296296296296" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1333333333333" style="3" customWidth="1"/>
     <col min="3" max="5" width="9" style="3"/>
     <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="19.3796296296296" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.3833333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -9052,7 +9045,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" ht="14.25" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>196</v>
       </c>

--- a/Decoration Budget/徐泽彬 装修预算表 有产品链接.xlsx
+++ b/Decoration Budget/徐泽彬 装修预算表 有产品链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="30288" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="14" r:id="rId1"/>
@@ -827,10 +827,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="26">
@@ -886,11 +886,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -902,16 +939,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,15 +971,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,27 +985,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -980,36 +1000,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,11 +1025,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1054,13 +1054,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,67 +1084,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1114,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,7 +1156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,7 +1168,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,13 +1210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,37 +1234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,17 +1263,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1295,20 +1289,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1346,17 +1344,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,10 +1366,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1378,134 +1378,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1718,8 +1718,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9342755" y="0"/>
-          <a:ext cx="12622530" cy="2463165"/>
+          <a:off x="8454390" y="0"/>
+          <a:ext cx="11319510" cy="2623185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,8 +1755,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876550" y="3943350"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="2588895" y="4206240"/>
+          <a:ext cx="304800" cy="316230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1803,8 +1803,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3543300" y="3943350"/>
-          <a:ext cx="6191250" cy="4037965"/>
+          <a:off x="3188970" y="4206240"/>
+          <a:ext cx="5582920" cy="4300855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1848,8 +1848,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8277860" y="3264535"/>
-          <a:ext cx="7884795" cy="4107815"/>
+          <a:off x="7452360" y="3481705"/>
+          <a:ext cx="7110095" cy="4382135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1903,8 +1903,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8343900"/>
-          <a:ext cx="7526020" cy="6438900"/>
+          <a:off x="0" y="8892540"/>
+          <a:ext cx="6879590" cy="6873240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1958,8 +1958,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8249920" y="8486775"/>
-          <a:ext cx="7144385" cy="7248525"/>
+          <a:off x="7424420" y="9046845"/>
+          <a:ext cx="6438265" cy="7728585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2013,8 +2013,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="16449675"/>
-          <a:ext cx="7145020" cy="8496300"/>
+          <a:off x="0" y="17516475"/>
+          <a:ext cx="6498590" cy="9067800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2072,8 +2072,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3489960"/>
-          <a:ext cx="6028055" cy="3777615"/>
+          <a:off x="0" y="3718560"/>
+          <a:ext cx="5445760" cy="4029075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2116,8 +2116,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8036560" y="3435985"/>
-          <a:ext cx="7302500" cy="4133850"/>
+          <a:off x="7241540" y="3664585"/>
+          <a:ext cx="6616700" cy="4408170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2160,8 +2160,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7820025"/>
-          <a:ext cx="7249795" cy="4219575"/>
+          <a:off x="0" y="8334375"/>
+          <a:ext cx="6667500" cy="4505325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2204,8 +2204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7353935" y="6934200"/>
-          <a:ext cx="7792720" cy="5058410"/>
+          <a:off x="6771640" y="7391400"/>
+          <a:ext cx="6894195" cy="5389880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2248,8 +2248,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="11953875"/>
-          <a:ext cx="7002145" cy="3905250"/>
+          <a:off x="323850" y="12742545"/>
+          <a:ext cx="6419850" cy="4168140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2292,8 +2292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953885" y="12592050"/>
-          <a:ext cx="6325870" cy="3248025"/>
+          <a:off x="6371590" y="13426440"/>
+          <a:ext cx="5633085" cy="3465195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2336,8 +2336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="15925800"/>
-          <a:ext cx="5325745" cy="3714750"/>
+          <a:off x="171450" y="16977360"/>
+          <a:ext cx="4810125" cy="3966210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2638,15 +2638,15 @@
   <sheetPr/>
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="100.633333333333" customWidth="1"/>
+    <col min="6" max="6" width="32.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="100.62962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2957,7 +2957,7 @@
       <c r="E17">
         <v>210</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="23" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       <c r="F55" t="s">
         <v>105</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="23" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       <c r="E69">
         <v>4019</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G69" s="23" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       <c r="E70">
         <v>2162.83</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="G70" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       <c r="F76" t="s">
         <v>139</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="G76" s="23" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       <c r="E77">
         <v>1176.38</v>
       </c>
-      <c r="G77" s="22" t="s">
+      <c r="G77" s="23" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="E78">
         <v>975</v>
       </c>
-      <c r="G78" s="22" t="s">
+      <c r="G78" s="23" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       <c r="E80">
         <v>583</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="23" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5016,14 +5016,14 @@
       <selection activeCell="J1" sqref="J$1:L$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.25" style="3" customWidth="1"/>
     <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="10.3833333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.3796296296296" style="3" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="3"/>
-    <col min="8" max="8" width="10.3833333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.3796296296296" style="3" customWidth="1"/>
     <col min="9" max="9" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5621,16 +5621,16 @@
       <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.75" style="3"/>
     <col min="2" max="2" width="20.25" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.75" style="3"/>
-    <col min="5" max="5" width="10.3833333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.3796296296296" style="3" customWidth="1"/>
     <col min="6" max="7" width="8.75" style="3"/>
-    <col min="8" max="8" width="10.3833333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.3796296296296" style="3" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.6333333333333" customWidth="1"/>
+    <col min="15" max="15" width="11.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -6133,7 +6133,7 @@
     <row r="50" spans="2:2">
       <c r="B50"/>
     </row>
-    <row r="95" ht="18" spans="1:3">
+    <row r="95" ht="17.4" spans="1:3">
       <c r="A95" s="20" t="s">
         <v>235</v>
       </c>
@@ -6174,13 +6174,13 @@
       <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.1333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.1296296296296" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="3" customWidth="1"/>
     <col min="3" max="5" width="9" style="3"/>
     <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="18.8833333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.8796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -6801,13 +6801,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.1333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1296296296296" style="3" customWidth="1"/>
     <col min="3" max="5" width="9" style="3"/>
     <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="15.1333333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.1296296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -7314,12 +7314,12 @@
       <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.75" style="3"/>
-    <col min="2" max="2" width="15.1333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1296296296296" style="3" customWidth="1"/>
     <col min="3" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="27.8833333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.8796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -7746,14 +7746,14 @@
       <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.75" style="3"/>
-    <col min="2" max="2" width="18.1333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.1296296296296" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="3"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="15.1333333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.1296296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -8091,7 +8091,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" ht="24" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>245</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" ht="24" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>246</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" ht="24" spans="1:7">
+    <row r="35" ht="36" spans="1:7">
       <c r="A35" s="16" t="s">
         <v>248</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" ht="24" spans="1:7">
       <c r="A37" s="16" t="s">
         <v>250</v>
       </c>
@@ -8336,14 +8336,14 @@
       <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.75" style="3"/>
     <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
     <col min="3" max="4" width="8.75" style="3"/>
     <col min="5" max="5" width="8.75" style="3" customWidth="1"/>
     <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="15.1333333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.1296296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -8937,13 +8937,13 @@
       <selection activeCell="J4" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="15.1333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1296296296296" style="3" customWidth="1"/>
     <col min="3" max="5" width="9" style="3"/>
     <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="19.3833333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.3796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -9045,7 +9045,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>196</v>
       </c>

--- a/Decoration Budget/徐泽彬 装修预算表 有产品链接.xlsx
+++ b/Decoration Budget/徐泽彬 装修预算表 有产品链接.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="30288" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="14" r:id="rId1"/>
@@ -20,18 +20,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">机电!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">家电!$A$2:$I$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">木工、油漆工!$A$2:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">泥工!$A$2:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">卫浴!$A$2:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">杂项!$A$2:$I$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">智能家居!$A$2:$I$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">卫浴!$A$2:$I$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">泥工!$A$2:$I$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">木工、油漆工!$A$2:$I$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">杂项!$A$2:$I$26</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="263">
   <si>
     <t>大类</t>
   </si>
@@ -825,15 +830,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,148 +887,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,7 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,194 +923,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1262,252 +947,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1544,16 +990,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1561,67 +1007,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规_Sheet1" xfId="49"/>
+  <cellStyles count="3">
+    <cellStyle name="常规_Sheet1" xfId="2"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1683,7 +1088,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1705,7 +1110,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1732,7 +1137,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1746,7 +1151,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2049" name="56a76e0c30e88ede4043429582d4cf1c.jpg" descr="pic:picture|56a76e0c30e88ede4043429582d4cf1c.jpg?t=513929468"/>
         <xdr:cNvSpPr>
@@ -1763,7 +1168,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1796,7 +1201,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1834,7 +1239,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1856,7 +1261,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1889,7 +1294,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1911,7 +1316,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1944,7 +1349,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1966,7 +1371,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1999,7 +1404,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2021,7 +1426,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2037,7 +1442,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2059,7 +1464,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2103,7 +1508,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2147,7 +1552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2191,7 +1596,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2235,7 +1640,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2279,7 +1684,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2323,7 +1728,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2630,23 +2035,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="32.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="100.62962962963" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="100.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2672,7 +2077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" outlineLevel="2" spans="1:6">
+    <row r="2" spans="1:7" outlineLevel="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2692,7 +2097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" outlineLevel="2" spans="1:6">
+    <row r="3" spans="1:7" outlineLevel="2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2712,7 +2117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" outlineLevel="2" spans="1:6">
+    <row r="4" spans="1:7" outlineLevel="2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2729,7 +2134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" outlineLevel="2" spans="1:7">
+    <row r="5" spans="1:7" outlineLevel="2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2742,15 +2147,15 @@
       <c r="D5">
         <v>20</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="24">
         <v>1078.02</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" outlineLevel="2" spans="1:7">
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" outlineLevel="2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2763,12 +2168,12 @@
       <c r="D6">
         <v>30</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="G6" s="23" t="s">
+      <c r="E6" s="24"/>
+      <c r="G6" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" outlineLevel="2" spans="1:5">
+    <row r="7" spans="1:7" outlineLevel="2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2781,9 +2186,9 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" outlineLevel="2" spans="1:5">
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" outlineLevel="2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2796,9 +2201,9 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" outlineLevel="2" spans="1:5">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" outlineLevel="2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2811,9 +2216,9 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" outlineLevel="2" spans="1:5">
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" outlineLevel="2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2826,9 +2231,9 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" outlineLevel="2" spans="1:5">
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" outlineLevel="2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2841,9 +2246,9 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" outlineLevel="2" spans="1:5">
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" outlineLevel="2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2856,9 +2261,9 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" outlineLevel="2" spans="1:7">
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" outlineLevel="2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2874,11 +2279,11 @@
       <c r="E13">
         <v>800</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" outlineLevel="2" spans="1:7">
+    <row r="14" spans="1:7" outlineLevel="2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2897,11 +2302,11 @@
       <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" outlineLevel="2" spans="1:7">
+    <row r="15" spans="1:7" outlineLevel="2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2914,11 +2319,11 @@
       <c r="E15">
         <v>490</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" outlineLevel="2" spans="1:7">
+    <row r="16" spans="1:7" outlineLevel="2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2937,11 +2342,11 @@
       <c r="F16" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" outlineLevel="2" spans="1:7">
+    <row r="17" spans="1:7" outlineLevel="2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2957,11 +2362,11 @@
       <c r="E17">
         <v>210</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" outlineLevel="2" spans="1:7">
+    <row r="18" spans="1:7" outlineLevel="2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2974,11 +2379,11 @@
       <c r="E18">
         <v>189.7</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" outlineLevel="2" spans="1:6">
+    <row r="19" spans="1:7" outlineLevel="2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2998,16 +2403,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" outlineLevel="1" spans="1:5">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:7" outlineLevel="1">
+      <c r="A20" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E20">
         <f>SUBTOTAL(9,E2:E19)</f>
-        <v>46289.72</v>
-      </c>
-    </row>
-    <row r="21" outlineLevel="2" spans="1:6">
+        <v>46289.719999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" outlineLevel="2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3027,7 +2432,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" outlineLevel="2" spans="1:6">
+    <row r="22" spans="1:7" outlineLevel="2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -3047,7 +2452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" outlineLevel="2" spans="1:6">
+    <row r="23" spans="1:7" outlineLevel="2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -3067,7 +2472,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" outlineLevel="2" spans="1:6">
+    <row r="24" spans="1:7" outlineLevel="2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3087,7 +2492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" outlineLevel="2" spans="1:6">
+    <row r="25" spans="1:7" outlineLevel="2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -3107,7 +2512,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" outlineLevel="2" spans="1:7">
+    <row r="26" spans="1:7" outlineLevel="2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3126,11 +2531,11 @@
       <c r="F26" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" outlineLevel="2" spans="1:6">
+    <row r="27" spans="1:7" outlineLevel="2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3147,7 +2552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" outlineLevel="2" spans="1:7">
+    <row r="28" spans="1:7" outlineLevel="2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3166,11 +2571,11 @@
       <c r="F28" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" outlineLevel="2" spans="1:7">
+    <row r="29" spans="1:7" outlineLevel="2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3189,11 +2594,11 @@
       <c r="F29" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" outlineLevel="2" spans="1:6">
+    <row r="30" spans="1:7" outlineLevel="2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3213,7 +2618,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" outlineLevel="2" spans="1:6">
+    <row r="31" spans="1:7" outlineLevel="2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3233,7 +2638,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" outlineLevel="2" spans="1:6">
+    <row r="32" spans="1:7" outlineLevel="2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3253,16 +2658,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" outlineLevel="1" spans="1:5">
-      <c r="A33" s="24" t="s">
+    <row r="33" spans="1:7" outlineLevel="1">
+      <c r="A33" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E33">
         <f>SUBTOTAL(9,E21:E32)</f>
-        <v>41187.8</v>
-      </c>
-    </row>
-    <row r="34" outlineLevel="2" spans="1:7">
+        <v>41187.800000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" outlineLevel="2">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -3278,11 +2683,11 @@
       <c r="E34">
         <v>1006</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" outlineLevel="2" spans="1:5">
+    <row r="35" spans="1:7" outlineLevel="2">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -3290,16 +2695,16 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>134.8</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>134.8</v>
-      </c>
-    </row>
-    <row r="36" outlineLevel="2" spans="1:6">
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" outlineLevel="2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -3319,7 +2724,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" outlineLevel="2" spans="1:6">
+    <row r="37" spans="1:7" outlineLevel="2">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3339,7 +2744,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" outlineLevel="2" spans="1:6">
+    <row r="38" spans="1:7" outlineLevel="2">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -3359,7 +2764,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" outlineLevel="2" spans="1:6">
+    <row r="39" spans="1:7" outlineLevel="2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -3379,7 +2784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" outlineLevel="2" spans="1:5">
+    <row r="40" spans="1:7" outlineLevel="2">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -3396,7 +2801,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" outlineLevel="2" spans="1:5">
+    <row r="41" spans="1:7" outlineLevel="2">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -3413,7 +2818,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" outlineLevel="2" spans="1:5">
+    <row r="42" spans="1:7" outlineLevel="2">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -3430,7 +2835,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="43" outlineLevel="2" spans="1:5">
+    <row r="43" spans="1:7" outlineLevel="2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3447,7 +2852,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="44" outlineLevel="2" spans="1:6">
+    <row r="44" spans="1:7" outlineLevel="2">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -3467,7 +2872,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" outlineLevel="2" spans="1:5">
+    <row r="45" spans="1:7" outlineLevel="2">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -3484,7 +2889,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="46" outlineLevel="2" spans="1:5">
+    <row r="46" spans="1:7" outlineLevel="2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -3501,7 +2906,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" outlineLevel="2" spans="1:5">
+    <row r="47" spans="1:7" outlineLevel="2">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -3518,7 +2923,7 @@
         <v>475.54</v>
       </c>
     </row>
-    <row r="48" outlineLevel="2" spans="1:6">
+    <row r="48" spans="1:7" outlineLevel="2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -3538,7 +2943,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" outlineLevel="2" spans="1:7">
+    <row r="49" spans="1:7" outlineLevel="2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -3546,19 +2951,19 @@
         <v>90</v>
       </c>
       <c r="C49">
-        <v>316.4</v>
+        <v>316.39999999999998</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>316.4</v>
-      </c>
-      <c r="G49" s="22" t="s">
+        <v>316.39999999999998</v>
+      </c>
+      <c r="G49" s="21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" outlineLevel="2" spans="1:7">
+    <row r="50" spans="1:7" outlineLevel="2">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -3568,11 +2973,11 @@
       <c r="E50">
         <v>860.4</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" outlineLevel="2" spans="1:7">
+    <row r="51" spans="1:7" outlineLevel="2">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -3591,21 +2996,21 @@
       <c r="F51" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" outlineLevel="1" spans="1:7">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:7" outlineLevel="1">
+      <c r="A52" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E52">
         <f>SUBTOTAL(9,E34:E51)</f>
         <v>11296.14</v>
       </c>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" outlineLevel="2" spans="1:7">
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:7" outlineLevel="2">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -3621,11 +3026,11 @@
       <c r="E53">
         <v>1300</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" outlineLevel="2" spans="1:7">
+    <row r="54" spans="1:7" outlineLevel="2">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -3644,11 +3049,11 @@
       <c r="F54" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" outlineLevel="2" spans="1:7">
+    <row r="55" spans="1:7" outlineLevel="2">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3667,11 +3072,11 @@
       <c r="F55" t="s">
         <v>105</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" outlineLevel="2" spans="1:7">
+    <row r="56" spans="1:7" outlineLevel="2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -3687,11 +3092,11 @@
       <c r="E56">
         <v>249</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="G56" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" outlineLevel="2" spans="1:7">
+    <row r="57" spans="1:7" outlineLevel="2">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -3707,11 +3112,11 @@
       <c r="E57">
         <v>477</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" outlineLevel="2" spans="1:7">
+    <row r="58" spans="1:7" outlineLevel="2">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -3727,11 +3132,11 @@
       <c r="E58">
         <v>1698</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" outlineLevel="2" spans="1:7">
+    <row r="59" spans="1:7" outlineLevel="2">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -3747,11 +3152,11 @@
       <c r="E59">
         <v>2700</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" outlineLevel="2" spans="1:7">
+    <row r="60" spans="1:7" outlineLevel="2">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -3767,11 +3172,11 @@
       <c r="E60">
         <v>2700</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="G60" s="21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="61" outlineLevel="2" spans="1:5">
+    <row r="61" spans="1:7" outlineLevel="2">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -3788,7 +3193,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="62" outlineLevel="2" spans="1:7">
+    <row r="62" spans="1:7" outlineLevel="2">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -3804,11 +3209,11 @@
       <c r="E62">
         <v>799</v>
       </c>
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" outlineLevel="2" spans="1:5">
+    <row r="63" spans="1:7" outlineLevel="2">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -3825,7 +3230,7 @@
         <v>2306.9</v>
       </c>
     </row>
-    <row r="64" outlineLevel="2" spans="1:7">
+    <row r="64" spans="1:7" outlineLevel="2">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -3841,11 +3246,11 @@
       <c r="E64">
         <v>1163</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" outlineLevel="2" spans="1:6">
+    <row r="65" spans="1:7" outlineLevel="2">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -3859,7 +3264,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" outlineLevel="2" spans="1:7">
+    <row r="66" spans="1:7" outlineLevel="2">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -3869,11 +3274,11 @@
       <c r="E66">
         <v>628</v>
       </c>
-      <c r="G66" s="22" t="s">
+      <c r="G66" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" outlineLevel="2" spans="1:6">
+    <row r="67" spans="1:7" outlineLevel="2">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -3893,8 +3298,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" outlineLevel="1" spans="1:5">
-      <c r="A68" s="24" t="s">
+    <row r="68" spans="1:7" outlineLevel="1">
+      <c r="A68" s="23" t="s">
         <v>128</v>
       </c>
       <c r="E68">
@@ -3902,7 +3307,7 @@
         <v>22833.86</v>
       </c>
     </row>
-    <row r="69" outlineLevel="2" spans="1:7">
+    <row r="69" spans="1:7" outlineLevel="2">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -3918,11 +3323,11 @@
       <c r="E69">
         <v>4019</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="G69" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" outlineLevel="2" spans="1:7">
+    <row r="70" spans="1:7" outlineLevel="2">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -3938,11 +3343,11 @@
       <c r="E70">
         <v>2162.83</v>
       </c>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71" outlineLevel="2" spans="1:7">
+    <row r="71" spans="1:7" outlineLevel="2">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -3958,11 +3363,11 @@
       <c r="E71">
         <v>1441.99</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" outlineLevel="2" spans="1:7">
+    <row r="72" spans="1:7" outlineLevel="2">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -3978,11 +3383,11 @@
       <c r="E72">
         <v>360.42</v>
       </c>
-      <c r="G72" s="22" t="s">
+      <c r="G72" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" outlineLevel="2" spans="1:7">
+    <row r="73" spans="1:7" outlineLevel="2">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -4001,11 +3406,11 @@
       <c r="F73" t="s">
         <v>139</v>
       </c>
-      <c r="G73" s="22" t="s">
+      <c r="G73" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" outlineLevel="2" spans="1:7">
+    <row r="74" spans="1:7" outlineLevel="2">
       <c r="A74" t="s">
         <v>129</v>
       </c>
@@ -4021,11 +3426,11 @@
       <c r="E74">
         <v>2248.38</v>
       </c>
-      <c r="G74" s="22" t="s">
+      <c r="G74" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" outlineLevel="2" spans="1:7">
+    <row r="75" spans="1:7" outlineLevel="2">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -4044,11 +3449,11 @@
       <c r="F75" t="s">
         <v>139</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G75" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" outlineLevel="2" spans="1:7">
+    <row r="76" spans="1:7" outlineLevel="2">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -4067,11 +3472,11 @@
       <c r="F76" t="s">
         <v>139</v>
       </c>
-      <c r="G76" s="23" t="s">
+      <c r="G76" s="22" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="77" outlineLevel="2" spans="1:7">
+    <row r="77" spans="1:7" outlineLevel="2">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -4079,19 +3484,19 @@
         <v>147</v>
       </c>
       <c r="C77">
-        <v>588.19</v>
+        <v>588.19000000000005</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77">
-        <v>1176.38</v>
-      </c>
-      <c r="G77" s="23" t="s">
+        <v>1176.3800000000001</v>
+      </c>
+      <c r="G77" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="78" outlineLevel="2" spans="1:7">
+    <row r="78" spans="1:7" outlineLevel="2">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -4107,11 +3512,11 @@
       <c r="E78">
         <v>975</v>
       </c>
-      <c r="G78" s="23" t="s">
+      <c r="G78" s="22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" outlineLevel="2" spans="1:7">
+    <row r="79" spans="1:7" outlineLevel="2">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -4127,11 +3532,11 @@
       <c r="E79">
         <v>1800</v>
       </c>
-      <c r="G79" s="23" t="s">
+      <c r="G79" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="80" outlineLevel="2" spans="1:7">
+    <row r="80" spans="1:7" outlineLevel="2">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -4141,21 +3546,21 @@
       <c r="E80">
         <v>583</v>
       </c>
-      <c r="G80" s="23" t="s">
+      <c r="G80" s="22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" outlineLevel="1" spans="1:7">
-      <c r="A81" s="24" t="s">
+    <row r="81" spans="1:7" outlineLevel="1">
+      <c r="A81" s="23" t="s">
         <v>155</v>
       </c>
       <c r="E81">
         <f>SUBTOTAL(9,E69:E80)</f>
         <v>21492</v>
       </c>
-      <c r="G81" s="22"/>
-    </row>
-    <row r="82" outlineLevel="2" spans="1:5">
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" spans="1:7" outlineLevel="2">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -4166,7 +3571,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="83" outlineLevel="2" spans="1:5">
+    <row r="83" spans="1:7" outlineLevel="2">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -4177,7 +3582,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="84" outlineLevel="2" spans="1:5">
+    <row r="84" spans="1:7" outlineLevel="2">
       <c r="A84" t="s">
         <v>156</v>
       </c>
@@ -4188,7 +3593,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="85" outlineLevel="2" spans="1:6">
+    <row r="85" spans="1:7" outlineLevel="2">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -4205,7 +3610,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" outlineLevel="2" spans="1:5">
+    <row r="86" spans="1:7" outlineLevel="2">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -4216,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" outlineLevel="2" spans="1:6">
+    <row r="87" spans="1:7" outlineLevel="2">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -4233,7 +3638,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" outlineLevel="2" spans="1:5">
+    <row r="88" spans="1:7" outlineLevel="2">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -4244,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" outlineLevel="2" spans="1:5">
+    <row r="89" spans="1:7" outlineLevel="2">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -4261,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" outlineLevel="2" spans="1:5">
+    <row r="90" spans="1:7" outlineLevel="2">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -4278,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" outlineLevel="2" spans="1:6">
+    <row r="91" spans="1:7" outlineLevel="2">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -4295,7 +3700,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" outlineLevel="2" spans="1:4">
+    <row r="92" spans="1:7" outlineLevel="2">
       <c r="A92" t="s">
         <v>156</v>
       </c>
@@ -4309,8 +3714,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" outlineLevel="1" spans="1:5">
-      <c r="A93" s="24" t="s">
+    <row r="93" spans="1:7" outlineLevel="1">
+      <c r="A93" s="23" t="s">
         <v>170</v>
       </c>
       <c r="E93">
@@ -4318,7 +3723,7 @@
         <v>11145</v>
       </c>
     </row>
-    <row r="94" outlineLevel="2" spans="1:6">
+    <row r="94" spans="1:7" outlineLevel="2">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -4338,7 +3743,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95" outlineLevel="2" spans="1:5">
+    <row r="95" spans="1:7" outlineLevel="2">
       <c r="A95" t="s">
         <v>171</v>
       </c>
@@ -4349,13 +3754,13 @@
         <v>1300</v>
       </c>
       <c r="D95">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E95">
         <v>8022</v>
       </c>
     </row>
-    <row r="96" outlineLevel="2" spans="1:5">
+    <row r="96" spans="1:7" outlineLevel="2">
       <c r="A96" t="s">
         <v>171</v>
       </c>
@@ -4372,7 +3777,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="97" outlineLevel="2" spans="1:6">
+    <row r="97" spans="1:6" outlineLevel="2">
       <c r="A97" t="s">
         <v>171</v>
       </c>
@@ -4392,7 +3797,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" outlineLevel="2" spans="1:6">
+    <row r="98" spans="1:6" outlineLevel="2">
       <c r="A98" t="s">
         <v>171</v>
       </c>
@@ -4405,11 +3810,11 @@
       <c r="E98" s="25">
         <v>39565</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="F98" s="24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="99" outlineLevel="2" spans="1:6">
+    <row r="99" spans="1:6" outlineLevel="2">
       <c r="A99" t="s">
         <v>171</v>
       </c>
@@ -4420,9 +3825,9 @@
         <v>1</v>
       </c>
       <c r="E99" s="25"/>
-      <c r="F99" s="21"/>
-    </row>
-    <row r="100" outlineLevel="2" spans="1:6">
+      <c r="F99" s="24"/>
+    </row>
+    <row r="100" spans="1:6" outlineLevel="2">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -4433,9 +3838,9 @@
         <v>1</v>
       </c>
       <c r="E100" s="25"/>
-      <c r="F100" s="21"/>
-    </row>
-    <row r="101" outlineLevel="2" spans="1:6">
+      <c r="F100" s="24"/>
+    </row>
+    <row r="101" spans="1:6" outlineLevel="2">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -4446,9 +3851,9 @@
         <v>4</v>
       </c>
       <c r="E101" s="25"/>
-      <c r="F101" s="21"/>
-    </row>
-    <row r="102" outlineLevel="2" spans="1:5">
+      <c r="F101" s="24"/>
+    </row>
+    <row r="102" spans="1:6" outlineLevel="2">
       <c r="A102" t="s">
         <v>171</v>
       </c>
@@ -4465,7 +3870,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="103" outlineLevel="2" spans="1:5">
+    <row r="103" spans="1:6" outlineLevel="2">
       <c r="A103" t="s">
         <v>171</v>
       </c>
@@ -4476,8 +3881,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" outlineLevel="1" spans="1:5">
-      <c r="A104" s="24" t="s">
+    <row r="104" spans="1:6" outlineLevel="1">
+      <c r="A104" s="23" t="s">
         <v>185</v>
       </c>
       <c r="E104">
@@ -4485,7 +3890,7 @@
         <v>76519</v>
       </c>
     </row>
-    <row r="105" outlineLevel="2" spans="1:6">
+    <row r="105" spans="1:6" outlineLevel="2">
       <c r="A105" t="s">
         <v>186</v>
       </c>
@@ -4502,7 +3907,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" outlineLevel="2" spans="1:5">
+    <row r="106" spans="1:6" outlineLevel="2">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -4513,7 +3918,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="107" outlineLevel="2" spans="1:6">
+    <row r="107" spans="1:6" outlineLevel="2">
       <c r="A107" t="s">
         <v>186</v>
       </c>
@@ -4530,7 +3935,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" outlineLevel="2" spans="1:6">
+    <row r="108" spans="1:6" outlineLevel="2">
       <c r="A108" t="s">
         <v>186</v>
       </c>
@@ -4547,8 +3952,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="109" outlineLevel="1" spans="1:5">
-      <c r="A109" s="24" t="s">
+    <row r="109" spans="1:6" outlineLevel="1">
+      <c r="A109" s="23" t="s">
         <v>191</v>
       </c>
       <c r="E109">
@@ -4556,7 +3961,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="110" outlineLevel="2" spans="1:6">
+    <row r="110" spans="1:6" outlineLevel="2">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -4573,7 +3978,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" outlineLevel="2" spans="1:6">
+    <row r="111" spans="1:6" outlineLevel="2">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -4590,8 +3995,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" outlineLevel="1" spans="1:5">
-      <c r="A112" s="24" t="s">
+    <row r="112" spans="1:6" outlineLevel="1">
+      <c r="A112" s="23" t="s">
         <v>195</v>
       </c>
       <c r="E112">
@@ -4599,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" outlineLevel="2" spans="1:5">
+    <row r="113" spans="1:7" outlineLevel="2">
       <c r="A113" t="s">
         <v>196</v>
       </c>
@@ -4616,7 +4021,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="114" outlineLevel="2" spans="1:7">
+    <row r="114" spans="1:7" outlineLevel="2">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -4632,11 +4037,11 @@
       <c r="E114">
         <v>4672</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G114" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="115" outlineLevel="2" spans="1:7">
+    <row r="115" spans="1:7" outlineLevel="2">
       <c r="A115" t="s">
         <v>196</v>
       </c>
@@ -4655,11 +4060,11 @@
       <c r="F115" t="s">
         <v>201</v>
       </c>
-      <c r="G115" s="22" t="s">
+      <c r="G115" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="116" outlineLevel="2" spans="1:5">
+    <row r="116" spans="1:7" outlineLevel="2">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -4676,7 +4081,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="117" outlineLevel="2" spans="1:5">
+    <row r="117" spans="1:7" outlineLevel="2">
       <c r="A117" t="s">
         <v>196</v>
       </c>
@@ -4693,7 +4098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" outlineLevel="2" spans="1:5">
+    <row r="118" spans="1:7" outlineLevel="2">
       <c r="A118" t="s">
         <v>196</v>
       </c>
@@ -4710,7 +4115,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" outlineLevel="2" spans="1:5">
+    <row r="119" spans="1:7" outlineLevel="2">
       <c r="A119" t="s">
         <v>196</v>
       </c>
@@ -4727,7 +4132,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="120" outlineLevel="2" spans="1:5">
+    <row r="120" spans="1:7" outlineLevel="2">
       <c r="A120" t="s">
         <v>196</v>
       </c>
@@ -4744,7 +4149,7 @@
         <v>717.82</v>
       </c>
     </row>
-    <row r="121" outlineLevel="2" spans="1:5">
+    <row r="121" spans="1:7" outlineLevel="2">
       <c r="A121" t="s">
         <v>196</v>
       </c>
@@ -4761,7 +4166,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="122" outlineLevel="2" spans="1:5">
+    <row r="122" spans="1:7" outlineLevel="2">
       <c r="A122" t="s">
         <v>196</v>
       </c>
@@ -4772,7 +4177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" outlineLevel="2" spans="1:5">
+    <row r="123" spans="1:7" outlineLevel="2">
       <c r="A123" t="s">
         <v>196</v>
       </c>
@@ -4783,7 +4188,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="124" outlineLevel="2" spans="1:5">
+    <row r="124" spans="1:7" outlineLevel="2">
       <c r="A124" t="s">
         <v>196</v>
       </c>
@@ -4794,7 +4199,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="125" outlineLevel="2" spans="1:5">
+    <row r="125" spans="1:7" outlineLevel="2">
       <c r="A125" t="s">
         <v>196</v>
       </c>
@@ -4805,7 +4210,7 @@
         <v>311.5</v>
       </c>
     </row>
-    <row r="126" outlineLevel="2" spans="1:6">
+    <row r="126" spans="1:7" outlineLevel="2">
       <c r="A126" t="s">
         <v>196</v>
       </c>
@@ -4822,7 +4227,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="127" outlineLevel="2" spans="1:5">
+    <row r="127" spans="1:7" outlineLevel="2">
       <c r="A127" t="s">
         <v>196</v>
       </c>
@@ -4839,7 +4244,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="128" outlineLevel="2" spans="1:5">
+    <row r="128" spans="1:7" outlineLevel="2">
       <c r="A128" t="s">
         <v>196</v>
       </c>
@@ -4856,7 +4261,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="129" outlineLevel="2" spans="1:4">
+    <row r="129" spans="1:5" outlineLevel="2">
       <c r="A129" t="s">
         <v>196</v>
       </c>
@@ -4870,7 +4275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" outlineLevel="2" spans="1:4">
+    <row r="130" spans="1:5" outlineLevel="2">
       <c r="A130" t="s">
         <v>196</v>
       </c>
@@ -4884,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" outlineLevel="2" spans="1:5">
+    <row r="131" spans="1:5" outlineLevel="2">
       <c r="A131" t="s">
         <v>196</v>
       </c>
@@ -4895,7 +4300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" outlineLevel="2" spans="1:5">
+    <row r="132" spans="1:5" outlineLevel="2">
       <c r="A132" t="s">
         <v>196</v>
       </c>
@@ -4906,7 +4311,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" outlineLevel="2" spans="1:5">
+    <row r="133" spans="1:5" outlineLevel="2">
       <c r="A133" t="s">
         <v>196</v>
       </c>
@@ -4917,7 +4322,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="134" outlineLevel="2" spans="1:5">
+    <row r="134" spans="1:5" outlineLevel="2">
       <c r="A134" t="s">
         <v>196</v>
       </c>
@@ -4928,8 +4333,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="135" outlineLevel="1" spans="1:5">
-      <c r="A135" s="24" t="s">
+    <row r="135" spans="1:5" outlineLevel="1">
+      <c r="A135" s="23" t="s">
         <v>221</v>
       </c>
       <c r="E135">
@@ -4937,8 +4342,8 @@
         <v>19212.72</v>
       </c>
     </row>
-    <row r="136" outlineLevel="1" spans="1:5">
-      <c r="A136" s="24" t="s">
+    <row r="136" spans="1:5" outlineLevel="1">
+      <c r="A136" s="23" t="s">
         <v>222</v>
       </c>
       <c r="E136">
@@ -4946,7 +4351,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="24" t="s">
+      <c r="A137" s="23" t="s">
         <v>223</v>
       </c>
       <c r="E137">
@@ -4960,80 +4365,88 @@
     <mergeCell ref="E98:E101"/>
     <mergeCell ref="F98:F101"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" display="https://detail.tmall.com/item.htm?id=523248157901&amp;spm=a1z09.2.0.0.623e2e8dD0Ilwh&amp;_u=re7ts74d1c"/>
-    <hyperlink ref="G13" r:id="rId2" display="https://item.taobao.com/item.htm?spm=a1z0k.7385997.1997989073.d4919141.ySPsP8&amp;id=522223398144&amp;_u=me7ts75db2"/>
-    <hyperlink ref="G14" r:id="rId3" display="https://item.taobao.com/item.htm?spm=a1z10.5-c-s.w4002-15290942880.107.ef064be6CGOpNS&amp;id=524331502509"/>
-    <hyperlink ref="G15" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.623e2e8dD0Ilwh&amp;id=45597842661&amp;_u=re7ts79c53"/>
-    <hyperlink ref="G16" r:id="rId5" display="https://item.taobao.com/item.htm?spm=a230r.1.14.1.TvJong&amp;id=530276475123&amp;ns=1&amp;abbucket=2#detail"/>
-    <hyperlink ref="G17" r:id="rId6" display="https://item.taobao.com/item.htm?spm=a1z10.5-c-s.w4002-15290942880.34.184c7023TNzzGe&amp;id=544536087803"/>
-    <hyperlink ref="G18" r:id="rId7" display="https://detail.tmall.com/item.htm?id=44861639443&amp;spm=a1z09.2.0.0.623e2e8dD0Ilwh&amp;_u=re7ts78419"/>
-    <hyperlink ref="G26" r:id="rId8" display="https://detail.tmall.com/item.htm?id=540398348368&amp;spm=a1z09.2.0.0.623e2e8dN3mVSO&amp;_u=re7ts7c1b9&amp;skuId=3574887932214"/>
-    <hyperlink ref="G28" r:id="rId9" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.3.i82jI9&amp;id=532889905583&amp;cm_id=140105335569ed55e27b&amp;_u=ve7ts7c0ed&amp;abbucket=2"/>
-    <hyperlink ref="G29" r:id="rId10" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.623e2e8dN3mVSO&amp;id=544513257746&amp;_u=re7ts7ec56"/>
-    <hyperlink ref="G34" r:id="rId11" display="https://item.taobao.com/item.htm?spm=a1z10.5-c-s.w4002-15007035385.12.RXsIxo&amp;id=9720469063"/>
-    <hyperlink ref="G49" r:id="rId12" display="https://detail.tmall.com/item.htm?id=43988653588&amp;spm=a1z09.2.0.0.623e2e8dN3mVSO&amp;_u=re7ts790f8&amp;sku_properties=13381687:10122;122276201:50792021"/>
-    <hyperlink ref="G50" r:id="rId13" display="https://item.taobao.com/item.htm?spm=a1z10.5-c-s.w4002-18045194854.12.679a7eebn3wQFX&amp;id=546290558017"/>
-    <hyperlink ref="G51" r:id="rId14" display="https://detail.tmall.com/item.htm?id=42397478450&amp;spm=a1z09.2.0.0.623e2e8dN3mVSO&amp;_u=re7ts7b9b6"/>
-    <hyperlink ref="G53" r:id="rId15" display="https://detail.tmall.com/item.htm?id=540281837572&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152321_367_1243354588&amp;pvid=10_60.177.174.199_533_1522152259962"/>
-    <hyperlink ref="G54" r:id="rId16" display="https://detail.tmall.com/item.htm?spm=a1z0d.6639537.1997196601.4.BELTYy&amp;id=37120992358"/>
-    <hyperlink ref="G55" r:id="rId17" display="https://detail.tmall.com/item.htm?spm=a1z0d.6639537.1997196601.13.BELTYy&amp;id=2428551820"/>
-    <hyperlink ref="G56" r:id="rId18" display="https://detail.tmall.com/item.htm?id=527421172519&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152428_229_343559902&amp;pvid=10_60.177.174.199_562_1522152411619&amp;skuId=3138135278957"/>
-    <hyperlink ref="G57" r:id="rId19" display="https://detail.tmall.com/item.htm?id=37860507728&amp;spm=a1z09.2.0.0.623e2e8dN3mVSO&amp;_u=re7ts72ebe"/>
-    <hyperlink ref="G58" r:id="rId20" display="https://detail.tmall.com/item.htm?spm=a1z10.5-b-s.w4011-15376707562.68.61ee61857GqTwZ&amp;id=539323621514&amp;rn=12c55e85f568e14ed1db56e9c03c9295&amp;abbucket=6"/>
-    <hyperlink ref="G59" r:id="rId21" display="https://detail.tmall.com/item.htm?id=527971184964&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152595_383_268680415&amp;pvid=10_60.177.174.199_525_1522152566451"/>
-    <hyperlink ref="G60" r:id="rId21" display="https://detail.tmall.com/item.htm?id=527971184964&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152595_383_268680415&amp;pvid=10_60.177.174.199_525_1522152566451"/>
-    <hyperlink ref="G62" r:id="rId22" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w5003-15237289667.6.171e1b39B5ofS0&amp;id=528277517706&amp;scene=taobao_shop"/>
-    <hyperlink ref="G64" r:id="rId23" display="https://detail.tmall.com/item.htm?id=542335131476&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152739_316_1334848050&amp;pvid=10_60.177.174.199_554_1522152726469&amp;sku_properties=21433:109463"/>
-    <hyperlink ref="G66" r:id="rId24" display="https://detail.tmall.com/item.htm?id=537508161615&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152809_278_106584213&amp;pvid=10_60.177.174.199_427_1522152789540&amp;skuId=3682870431512"/>
-    <hyperlink ref="G69" r:id="rId25" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-12870092140.14.pYIN0k&amp;id=537478575472&amp;pvid=9c88b891-f055-49b8-99ea-ccf892824afa&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;pos=3&amp;skuId=323"/>
-    <hyperlink ref="G70" r:id="rId26" display="https://detail.tmall.com/item.htm?spm=a1z10.3-b.w4011-12822349212.102.O3SFXP&amp;id=537237558563&amp;rn=e65be398d169130e77c439f45dc5623e&amp;abbucket=14&amp;skuId=3222394132824"/>
-    <hyperlink ref="G71" r:id="rId27" display="https://detail.tmall.com/item.htm?spm=a1z10.3-b-s.w4011-15423722056.97.VzzwdT&amp;id=24760148273&amp;rn=30b8c17b3540cc2db1f8de2f2da21cd2&amp;abbucket=18&amp;sku_properties=29112:16541580"/>
-    <hyperlink ref="G72" r:id="rId28" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-3405602524.2.ACGmfz&amp;id=520630670941&amp;pvid=2d3de916-e0f2-477a-b19f-13ae403180c9&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;aldid=Kz7bA9vX&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;po"/>
-    <hyperlink ref="G73" r:id="rId29" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-7904971962.6.CL0i15&amp;id=45844286272&amp;pvid=8e8d33c4-b5e2-4355-8c82-7ae33c7fa200&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;aldid=JOoRRj94&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;pos"/>
-    <hyperlink ref="G74" r:id="rId30" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-3405763066.4.CL0i15&amp;id=39171103422&amp;pvid=9f36569f-a664-4fb8-be35-ec123e8d558d&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;aldid=VVlmX9gB&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;pos"/>
-    <hyperlink ref="G75" r:id="rId31" display="https://detail.tmall.com/item.htm?spm=a1z10.3-b.w4011-12822349212.59.4LHCFI&amp;id=522921852322&amp;rn=31a92bb747e0dc800bad0b27dfff5ada&amp;abbucket=14&amp;skuId=3205374039585"/>
-    <hyperlink ref="G76" r:id="rId32" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-14544409964.12.3PuT46&amp;id=532192334070&amp;pvid=88232d3b-8726-4cfe-9393-ec08e8f4c4d7&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;aldid=0JywTPlr&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;"/>
-    <hyperlink ref="G77" r:id="rId33" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-12870247179.2.ycqJXh&amp;id=522915578220&amp;pvid=117ebbd9-9346-4450-8027-9438b08212b3&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;aldid=4GJ29BRn&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;p"/>
-    <hyperlink ref="G78" r:id="rId34" display="https://detail.tmall.com/item.htm?id=35481983854&amp;spm=a1z09.2.0.0.623e2e8dTRDdcb&amp;_u=re7ts75486&amp;sku_properties=10187648:21959"/>
-    <hyperlink ref="G79" r:id="rId35" display="https://detail.tmall.com/item.htm?id=537821160532&amp;spm=a1z09.2.0.0.623e2e8dTRDdcb&amp;_u=re7ts72c8c"/>
-    <hyperlink ref="G80" r:id="rId36" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.623e2e8dTRDdcb&amp;id=542165901380&amp;_u=re7ts7b3d4"/>
-    <hyperlink ref="G114" r:id="rId37" display="https://detail.tmall.com/item.htm?id=45367207708&amp;spm=a1z09.2.0.0.pD8sYY&amp;_u=se7ts762b0&amp;skuId=3231264644084"/>
-    <hyperlink ref="G115" r:id="rId38" display="https://detail.tmall.com/item.htm?id=37120992358&amp;spm=a1z09.2.0.0.uh0IEr&amp;_u=be7ts7cb7e"/>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G13" r:id="rId2"/>
+    <hyperlink ref="G14" r:id="rId3"/>
+    <hyperlink ref="G15" r:id="rId4"/>
+    <hyperlink ref="G16" r:id="rId5"/>
+    <hyperlink ref="G17" r:id="rId6"/>
+    <hyperlink ref="G18" r:id="rId7"/>
+    <hyperlink ref="G26" r:id="rId8"/>
+    <hyperlink ref="G28" r:id="rId9"/>
+    <hyperlink ref="G29" r:id="rId10"/>
+    <hyperlink ref="G34" r:id="rId11"/>
+    <hyperlink ref="G49" r:id="rId12"/>
+    <hyperlink ref="G50" r:id="rId13"/>
+    <hyperlink ref="G51" r:id="rId14"/>
+    <hyperlink ref="G53" r:id="rId15"/>
+    <hyperlink ref="G54" r:id="rId16"/>
+    <hyperlink ref="G55" r:id="rId17"/>
+    <hyperlink ref="G56" r:id="rId18"/>
+    <hyperlink ref="G57" r:id="rId19"/>
+    <hyperlink ref="G58" r:id="rId20"/>
+    <hyperlink ref="G59" r:id="rId21"/>
+    <hyperlink ref="G60" r:id="rId22"/>
+    <hyperlink ref="G62" r:id="rId23"/>
+    <hyperlink ref="G64" r:id="rId24"/>
+    <hyperlink ref="G66" r:id="rId25"/>
+    <hyperlink ref="G69" r:id="rId26"/>
+    <hyperlink ref="G70" r:id="rId27"/>
+    <hyperlink ref="G71" r:id="rId28"/>
+    <hyperlink ref="G72" r:id="rId29"/>
+    <hyperlink ref="G73" r:id="rId30"/>
+    <hyperlink ref="G74" r:id="rId31"/>
+    <hyperlink ref="G75" r:id="rId32"/>
+    <hyperlink ref="G76" r:id="rId33"/>
+    <hyperlink ref="G77" r:id="rId34"/>
+    <hyperlink ref="G78" r:id="rId35"/>
+    <hyperlink ref="G79" r:id="rId36"/>
+    <hyperlink ref="G80" r:id="rId37"/>
+    <hyperlink ref="G114" r:id="rId38"/>
+    <hyperlink ref="G115" r:id="rId39"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:L$1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="20.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
     <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="10.3796296296296" style="3" customWidth="1"/>
-    <col min="6" max="7" width="8.75" style="3"/>
-    <col min="8" max="8" width="10.3796296296296" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="10.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="C1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>225</v>
       </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -5064,7 +4477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -5094,7 +4507,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -5125,7 +4538,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -5153,7 +4566,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -5168,7 +4581,7 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" si="1"/>
-        <v>216.2</v>
+        <v>216.20000000000002</v>
       </c>
       <c r="F6" s="4">
         <v>10.81</v>
@@ -5176,13 +4589,13 @@
       <c r="G6" s="4">
         <v>20</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="27">
         <f>936.26+141.76</f>
         <v>1078.02</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -5205,10 +4618,10 @@
       <c r="G7" s="4">
         <v>30</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -5223,7 +4636,7 @@
       </c>
       <c r="E8" s="19">
         <f t="shared" si="1"/>
-        <v>269.55</v>
+        <v>269.54999999999995</v>
       </c>
       <c r="F8" s="4">
         <v>53.91</v>
@@ -5231,10 +4644,10 @@
       <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -5257,10 +4670,10 @@
       <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="1" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -5283,10 +4696,10 @@
       <c r="G10" s="4">
         <v>3</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -5309,10 +4722,10 @@
       <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
+    <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -5335,10 +4748,10 @@
       <c r="G12" s="4">
         <v>2</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -5361,10 +4774,10 @@
       <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
+    <row r="14" spans="1:9" s="1" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -5393,7 +4806,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="1" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -5424,7 +4837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:9">
+    <row r="16" spans="1:9" s="1" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -5443,7 +4856,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="1" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -5473,7 +4886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:9">
+    <row r="18" spans="1:9" s="1" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -5495,7 +4908,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:9">
+    <row r="19" spans="1:9" s="1" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -5514,7 +4927,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:9">
+    <row r="20" spans="1:9" s="1" customFormat="1">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -5545,7 +4958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:9">
+    <row r="21" spans="1:9" s="1" customFormat="1">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -5574,7 +4987,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
         <v>223</v>
       </c>
@@ -5584,64 +4997,70 @@
       </c>
       <c r="H22" s="12">
         <f>SUM(H3:H21)</f>
-        <v>46289.72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>46289.719999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
         <v>229</v>
       </c>
       <c r="H25" s="12">
         <f>H22</f>
-        <v>46289.72</v>
+        <v>46289.719999999994</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:I22"/>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="H6:H13"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="3"/>
-    <col min="2" max="2" width="20.25" style="3" customWidth="1"/>
-    <col min="3" max="4" width="8.75" style="3"/>
-    <col min="5" max="5" width="10.3796296296296" style="3" customWidth="1"/>
-    <col min="6" max="7" width="8.75" style="3"/>
-    <col min="8" max="8" width="10.3796296296296" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="10.33203125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="10.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.6296296296296" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:16">
+      <c r="C1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5670,7 +5089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
@@ -5701,7 +5120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
@@ -5723,7 +5142,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
+    <row r="5" spans="1:16" s="1" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -5754,7 +5173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -5785,7 +5204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -5816,7 +5235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
+    <row r="8" spans="1:16" s="1" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -5847,7 +5266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+    <row r="9" spans="1:16" s="1" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -5866,7 +5285,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:16">
+    <row r="10" spans="1:16" s="1" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -5899,7 +5318,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
+    <row r="11" spans="1:16" s="1" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -5930,7 +5349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
+    <row r="12" spans="1:16" s="1" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -5961,7 +5380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" spans="1:16" s="1" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -5991,7 +5410,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -6022,7 +5441,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:16">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -6053,7 +5472,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -6102,7 +5521,7 @@
       </c>
       <c r="H19" s="12">
         <f>SUM(H3:H18)</f>
-        <v>40888.8</v>
+        <v>40888.800000000003</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6111,10 +5530,10 @@
       </c>
       <c r="H21" s="12">
         <f>SUM(H3:H13)</f>
-        <v>35888.8</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
+        <v>35888.800000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="D24"/>
     </row>
     <row r="48" spans="2:3">
@@ -6125,15 +5544,15 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="49" spans="16:16">
+    <row r="49" spans="2:16">
       <c r="P49">
         <v>4099</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:16">
       <c r="B50"/>
     </row>
-    <row r="95" ht="17.4" spans="1:3">
+    <row r="95" spans="1:3" ht="17">
       <c r="A95" s="20" t="s">
         <v>235</v>
       </c>
@@ -6150,46 +5569,52 @@
   </sheetData>
   <autoFilter ref="A2:I19">
     <sortState ref="A2:I19">
-      <sortCondition ref="H2:H19" sortBy="cellColor" dxfId="0"/>
+      <sortCondition sortBy="cellColor" ref="H2:H19" dxfId="5"/>
     </sortState>
-    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.1296296296296" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="3" customWidth="1"/>
-    <col min="3" max="5" width="9" style="3"/>
-    <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="18.8796296296296" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="3" customWidth="1"/>
+    <col min="3" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="18.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="C1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>225</v>
       </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -6220,7 +5645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -6249,7 +5674,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>73</v>
@@ -6265,18 +5690,18 @@
         <v>188</v>
       </c>
       <c r="F4" s="4">
-        <v>134.8</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
-        <v>134.8</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -6307,7 +5732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -6338,7 +5763,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -6369,7 +5794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="18" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -6400,7 +5825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -6429,7 +5854,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="1" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -6458,7 +5883,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" s="18" customFormat="1" spans="1:9">
+    <row r="11" spans="1:9" s="18" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -6487,7 +5912,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
+    <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -6516,7 +5941,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -6547,7 +5972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
+    <row r="14" spans="1:9" s="1" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -6577,7 +6002,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="2" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -6599,7 +6024,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:9">
+    <row r="16" spans="1:9" s="2" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -6621,7 +6046,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="1" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -6652,7 +6077,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:9">
+    <row r="18" spans="1:9" s="1" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -6670,18 +6095,18 @@
         <v>500</v>
       </c>
       <c r="F18" s="4">
-        <v>316.4</v>
+        <v>316.39999999999998</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="1"/>
-        <v>316.4</v>
+        <v>316.39999999999998</v>
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:9">
+    <row r="19" spans="1:9" s="1" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -6698,7 +6123,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:9">
+    <row r="20" spans="1:9" s="1" customFormat="1">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -6728,7 +6153,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -6741,7 +6166,7 @@
         <v>11296.14</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>229</v>
       </c>
@@ -6750,7 +6175,7 @@
         <v>11296.14</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -6758,7 +6183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -6778,45 +6203,51 @@
   </sheetData>
   <autoFilter ref="A2:I20">
     <sortState ref="A2:I20">
-      <sortCondition ref="H2:H19" sortBy="cellColor" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="H2:H19" dxfId="4"/>
     </sortState>
-    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.1296296296296" style="3" customWidth="1"/>
-    <col min="3" max="5" width="9" style="3"/>
-    <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="15.1296296296296" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="3" customWidth="1"/>
+    <col min="3" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="15.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="C1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>225</v>
       </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -6901,7 +6332,7 @@
       </c>
       <c r="H4" s="4">
         <f>G4*F4+115.9</f>
-        <v>239.6</v>
+        <v>239.60000000000002</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>102</v>
@@ -7026,7 +6457,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>98</v>
       </c>
@@ -7055,7 +6486,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="1" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>98</v>
       </c>
@@ -7084,7 +6515,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>98</v>
       </c>
@@ -7141,7 +6572,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>98</v>
       </c>
@@ -7170,7 +6601,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
+    <row r="14" spans="1:9" s="1" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>98</v>
       </c>
@@ -7192,7 +6623,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="1" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>98</v>
       </c>
@@ -7210,7 +6641,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:9">
+    <row r="16" spans="1:9" s="1" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>98</v>
       </c>
@@ -7227,7 +6658,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="1" customFormat="1">
       <c r="A17" s="3" t="s">
         <v>98</v>
       </c>
@@ -7258,7 +6689,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -7271,7 +6702,7 @@
         <v>22833.86</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>229</v>
       </c>
@@ -7280,7 +6711,7 @@
         <v>21633.86</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
         <v>238</v>
       </c>
@@ -7291,44 +6722,51 @@
   </sheetData>
   <autoFilter ref="A2:I18">
     <sortState ref="A2:I18">
-      <sortCondition ref="H2:H15" sortBy="cellColor" dxfId="2"/>
+      <sortCondition sortBy="cellColor" ref="H2:H15" dxfId="3"/>
     </sortState>
-    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="3"/>
-    <col min="2" max="2" width="15.1296296296296" style="3" customWidth="1"/>
-    <col min="3" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="27.8796296296296" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="15.1640625" style="3" customWidth="1"/>
+    <col min="3" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="27.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="C1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>225</v>
       </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -7359,7 +6797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>129</v>
       </c>
@@ -7390,7 +6828,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>129</v>
       </c>
@@ -7419,7 +6857,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>129</v>
       </c>
@@ -7448,7 +6886,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>129</v>
       </c>
@@ -7477,7 +6915,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>129</v>
       </c>
@@ -7507,7 +6945,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>129</v>
       </c>
@@ -7536,7 +6974,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
@@ -7567,7 +7005,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="1" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
@@ -7598,7 +7036,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>129</v>
       </c>
@@ -7616,18 +7054,18 @@
         <v>2760</v>
       </c>
       <c r="F11" s="4">
-        <v>588.19</v>
+        <v>588.19000000000005</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="1"/>
-        <v>1176.38</v>
+        <v>1176.3800000000001</v>
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
+    <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>129</v>
       </c>
@@ -7652,7 +7090,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>129</v>
       </c>
@@ -7676,7 +7114,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
+    <row r="14" spans="1:9" s="1" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>129</v>
       </c>
@@ -7693,10 +7131,10 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:9">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:9">
       <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:8">
@@ -7730,39 +7168,47 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="3"/>
-    <col min="2" max="2" width="18.1296296296296" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="3"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="18.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
-    <col min="5" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="15.1296296296296" style="3" customWidth="1"/>
+    <col min="5" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="15.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="C1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>225</v>
       </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -7814,7 +7260,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="2" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>156</v>
       </c>
@@ -7849,7 +7295,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -7877,7 +7323,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>156</v>
       </c>
@@ -7902,7 +7348,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -7930,7 +7376,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>156</v>
       </c>
@@ -7955,7 +7401,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="1" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -7977,7 +7423,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
@@ -7998,7 +7444,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
+    <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>156</v>
       </c>
@@ -8026,7 +7472,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>156</v>
       </c>
@@ -8048,13 +7494,13 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E14" s="12">
         <f>SUM(E3:E13)</f>
-        <v>17037.67</v>
+        <v>17037.669999999998</v>
       </c>
       <c r="H14" s="12">
         <f>SUM(H3:H13)</f>
@@ -8070,7 +7516,7 @@
         <v>11145</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
         <v>239</v>
@@ -8091,7 +7537,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" ht="24" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="14" t="s">
         <v>245</v>
       </c>
@@ -8109,17 +7555,17 @@
       </c>
       <c r="E32" s="14">
         <f t="shared" ref="E32:E37" si="0">B32/C32</f>
-        <v>42.1121583333333</v>
+        <v>42.112158333333333</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" ref="F32:F37" si="1">B32/D32</f>
-        <v>84.2243166666667</v>
+        <v>84.224316666666667</v>
       </c>
       <c r="G32" s="15">
         <v>44</v>
       </c>
     </row>
-    <row r="33" ht="24" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="14" t="s">
         <v>246</v>
       </c>
@@ -8136,17 +7582,17 @@
       </c>
       <c r="E33" s="14">
         <f t="shared" si="0"/>
-        <v>9.42694444444444</v>
+        <v>9.4269444444444446</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="1"/>
-        <v>9.42694444444444</v>
+        <v>9.4269444444444446</v>
       </c>
       <c r="G33" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="34" ht="24" spans="1:7">
+    <row r="34" spans="1:7" ht="26">
       <c r="A34" s="14" t="s">
         <v>247</v>
       </c>
@@ -8164,17 +7610,17 @@
       </c>
       <c r="E34" s="14">
         <f t="shared" si="0"/>
-        <v>197.5311</v>
+        <v>197.53110000000001</v>
       </c>
       <c r="F34" s="14">
         <f t="shared" si="1"/>
-        <v>197.5311</v>
+        <v>197.53110000000001</v>
       </c>
       <c r="G34" s="15">
         <v>188</v>
       </c>
     </row>
-    <row r="35" ht="36" spans="1:7">
+    <row r="35" spans="1:7" ht="26">
       <c r="A35" s="16" t="s">
         <v>248</v>
       </c>
@@ -8202,7 +7648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" ht="24" spans="1:7">
+    <row r="36" spans="1:7" ht="26">
       <c r="A36" s="16" t="s">
         <v>249</v>
       </c>
@@ -8220,17 +7666,17 @@
       </c>
       <c r="E36" s="14">
         <f t="shared" si="0"/>
-        <v>39.7922222222222</v>
+        <v>39.792222222222222</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" si="1"/>
-        <v>79.5844444444444</v>
+        <v>79.584444444444443</v>
       </c>
       <c r="G36" s="14">
         <v>42</v>
       </c>
     </row>
-    <row r="37" ht="24" spans="1:7">
+    <row r="37" spans="1:7">
       <c r="A37" s="16" t="s">
         <v>250</v>
       </c>
@@ -8248,11 +7694,11 @@
       </c>
       <c r="E37" s="14">
         <f t="shared" si="0"/>
-        <v>21.2805555555556</v>
+        <v>21.280555555555555</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" si="1"/>
-        <v>42.5611111111111</v>
+        <v>42.56111111111111</v>
       </c>
       <c r="G37" s="14">
         <v>26</v>
@@ -8276,13 +7722,13 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" ht="24" spans="1:7">
+    <row r="40" spans="1:7" ht="26">
       <c r="A40" s="17" t="s">
         <v>251</v>
       </c>
       <c r="B40" s="13">
         <f>(B32+B34+B35)/1000000</f>
-        <v>55.035975</v>
+        <v>55.035975000000001</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13">
@@ -8293,13 +7739,13 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" ht="24" spans="1:7">
+    <row r="41" spans="1:7" ht="26">
       <c r="A41" s="17" t="s">
         <v>252</v>
       </c>
       <c r="B41" s="13">
         <f>(B33+B36+B37)/1000000</f>
-        <v>14.3868</v>
+        <v>14.386799999999999</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13">
@@ -8313,46 +7759,53 @@
   </sheetData>
   <autoFilter ref="A2:I14">
     <sortState ref="A2:I14">
-      <sortCondition ref="H2:H14" sortBy="cellColor" dxfId="3"/>
+      <sortCondition sortBy="cellColor" ref="H2:H14" dxfId="2"/>
     </sortState>
-    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J$1:J$1048576"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="3"/>
-    <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
-    <col min="3" max="4" width="8.75" style="3"/>
-    <col min="5" max="5" width="8.75" style="3" customWidth="1"/>
-    <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="15.1296296296296" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="19.1640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="15.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="C1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>225</v>
       </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
@@ -8414,7 +7867,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>171</v>
       </c>
@@ -8425,24 +7878,24 @@
         <v>1300</v>
       </c>
       <c r="D4" s="8">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E4" s="8">
         <f>D4*C4</f>
-        <v>5980</v>
+        <v>5979.9999999999991</v>
       </c>
       <c r="F4" s="8">
         <v>1300</v>
       </c>
       <c r="G4" s="8">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H4" s="8">
         <v>8022</v>
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>171</v>
       </c>
@@ -8545,7 +7998,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>171</v>
       </c>
@@ -8569,7 +8022,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="1" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>171</v>
       </c>
@@ -8593,7 +8046,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>186</v>
       </c>
@@ -8610,7 +8063,7 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
+    <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>186</v>
       </c>
@@ -8640,7 +8093,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="8" t="s">
         <v>186</v>
       </c>
@@ -8670,7 +8123,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
+    <row r="14" spans="1:9" s="1" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>192</v>
       </c>
@@ -8700,7 +8153,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="1" customFormat="1">
       <c r="A15" s="8" t="s">
         <v>192</v>
       </c>
@@ -8730,7 +8183,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:9">
+    <row r="16" spans="1:9" s="1" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>186</v>
       </c>
@@ -8758,7 +8211,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="1" customFormat="1">
       <c r="A17" s="11" t="s">
         <v>171</v>
       </c>
@@ -8789,7 +8242,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:9">
+    <row r="18" spans="1:9" s="1" customFormat="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>184</v>
@@ -8804,7 +8257,7 @@
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:9">
+    <row r="19" spans="1:9" s="1" customFormat="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -8815,20 +8268,20 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E20" s="12">
         <f>SUM(E3:E18)</f>
-        <v>67065.4</v>
+        <v>67065.399999999994</v>
       </c>
       <c r="H20" s="12">
         <f>SUM(H3:H19)</f>
         <v>79669</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
         <v>229</v>
       </c>
@@ -8837,7 +8290,7 @@
         <v>78008</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
         <v>172</v>
       </c>
@@ -8851,7 +8304,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
         <v>255</v>
       </c>
@@ -8866,13 +8319,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B29" s="3">
         <f>14210700/1000000</f>
-        <v>14.2107</v>
+        <v>14.210699999999999</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>256</v>
@@ -8881,13 +8334,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B30" s="3">
         <f>8667400/1000000</f>
-        <v>8.6674</v>
+        <v>8.6674000000000007</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>257</v>
@@ -8896,13 +8349,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B31" s="3">
         <f>918000/1000000</f>
-        <v>0.918</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>258</v>
@@ -8914,45 +8367,51 @@
   </sheetData>
   <autoFilter ref="A2:I20">
     <sortState ref="A2:I20">
-      <sortCondition ref="H2:H20" sortBy="cellColor" dxfId="4"/>
+      <sortCondition sortBy="cellColor" ref="H2:H20" dxfId="1"/>
     </sortState>
-    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J$1:J$1048576"/>
+      <selection activeCell="J4" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="15.1296296296296" style="3" customWidth="1"/>
-    <col min="3" max="5" width="9" style="3"/>
-    <col min="6" max="8" width="8.75" style="3"/>
-    <col min="9" max="9" width="19.3796296296296" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="3" customWidth="1"/>
+    <col min="3" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="19.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="C1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>225</v>
       </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -9014,7 +8473,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>196</v>
       </c>
@@ -9039,7 +8498,7 @@
       </c>
       <c r="H4" s="4">
         <f>G4*F4+367.16</f>
-        <v>665.16</v>
+        <v>665.16000000000008</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>262</v>
@@ -9125,7 +8584,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>196</v>
       </c>
@@ -9146,7 +8605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>196</v>
       </c>
@@ -9168,7 +8627,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="1" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>196</v>
       </c>
@@ -9190,7 +8649,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>196</v>
       </c>
@@ -9211,7 +8670,7 @@
         <v>717.82</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
+    <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>196</v>
       </c>
@@ -9233,7 +8692,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>196</v>
       </c>
@@ -9250,7 +8709,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
+    <row r="14" spans="1:9" s="1" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>196</v>
       </c>
@@ -9267,7 +8726,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="1" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>196</v>
       </c>
@@ -9284,7 +8743,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:9">
+    <row r="16" spans="1:9" s="1" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>196</v>
       </c>
@@ -9302,7 +8761,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="1" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>196</v>
       </c>
@@ -9330,7 +8789,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:9">
+    <row r="18" spans="1:9" s="1" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>196</v>
       </c>
@@ -9358,7 +8817,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:9">
+    <row r="19" spans="1:9" s="1" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>196</v>
       </c>
@@ -9387,7 +8846,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:9">
+    <row r="20" spans="1:9" s="1" customFormat="1">
       <c r="A20" s="4" t="s">
         <v>196</v>
       </c>
@@ -9413,7 +8872,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:9">
+    <row r="21" spans="1:9" s="1" customFormat="1">
       <c r="A21" s="4" t="s">
         <v>196</v>
       </c>
@@ -9439,7 +8898,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:9">
+    <row r="22" spans="1:9" s="1" customFormat="1">
       <c r="A22" s="4" t="s">
         <v>196</v>
       </c>
@@ -9456,7 +8915,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:9">
+    <row r="23" spans="1:9" s="1" customFormat="1">
       <c r="A23" s="4" t="s">
         <v>196</v>
       </c>
@@ -9474,7 +8933,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:9">
+    <row r="24" spans="1:9" s="2" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>196</v>
       </c>
@@ -9491,7 +8950,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:9">
+    <row r="25" spans="1:9" s="2" customFormat="1">
       <c r="A25" s="5" t="s">
         <v>196</v>
       </c>
@@ -9508,7 +8967,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
         <v>223</v>
       </c>
@@ -9518,31 +8977,35 @@
       </c>
       <c r="H26" s="3">
         <f>SUM(H3:H24)</f>
-        <v>20257.88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>20257.879999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
         <v>229</v>
       </c>
       <c r="H28" s="3">
         <f>SUM(H3:H25)</f>
-        <v>20757.88</v>
+        <v>20757.879999999997</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I26">
     <sortState ref="A2:I26">
-      <sortCondition ref="H2:H25" sortBy="cellColor" dxfId="5"/>
+      <sortCondition sortBy="cellColor" ref="H2:H25" dxfId="0"/>
     </sortState>
-    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Decoration Budget/徐泽彬 装修预算表 有产品链接.xlsx
+++ b/Decoration Budget/徐泽彬 装修预算表 有产品链接.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16600" activeTab="3"/>
+    <workbookView windowWidth="30720" windowHeight="13668"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="14" r:id="rId1"/>
@@ -20,23 +20,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">机电!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">家电!$A$2:$I$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">智能家居!$A$2:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">卫浴!$A$2:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">泥工!$A$2:$I$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">木工、油漆工!$A$2:$I$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">泥工!$A$2:$I$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">卫浴!$A$2:$I$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">杂项!$A$2:$I$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">智能家居!$A$2:$I$20</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
   <si>
     <t>大类</t>
   </si>
@@ -830,11 +825,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,18 +886,148 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -907,7 +1036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,8 +1052,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -947,13 +1262,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -990,16 +1544,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1007,26 +1561,67 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="常规_Sheet1" xfId="2"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规_Sheet1" xfId="49"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1088,7 +1683,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1110,7 +1705,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1123,7 +1718,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8454390" y="0"/>
+          <a:off x="8476615" y="0"/>
           <a:ext cx="11319510" cy="2623185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1137,7 +1732,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1151,7 +1746,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2049" name="56a76e0c30e88ede4043429582d4cf1c.jpg" descr="pic:picture|56a76e0c30e88ede4043429582d4cf1c.jpg?t=513929468"/>
         <xdr:cNvSpPr>
@@ -1160,22 +1755,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2588895" y="4206240"/>
+          <a:off x="2617470" y="4206240"/>
           <a:ext cx="304800" cy="316230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -1201,15 +1787,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3188970" y="4206240"/>
-          <a:ext cx="5582920" cy="4300855"/>
+          <a:off x="3234690" y="4206240"/>
+          <a:ext cx="5610860" cy="4300855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,7 +1825,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1253,22 +1839,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7452360" y="3481705"/>
-          <a:ext cx="7110095" cy="4382135"/>
+          <a:off x="7526020" y="3481705"/>
+          <a:ext cx="7112635" cy="4382135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1294,7 +1871,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1309,21 +1886,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8892540"/>
-          <a:ext cx="6879590" cy="6873240"/>
+          <a:ext cx="6953250" cy="6873240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1349,7 +1917,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1363,22 +1931,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7424420" y="9046845"/>
-          <a:ext cx="6438265" cy="7728585"/>
+          <a:off x="7498080" y="9046845"/>
+          <a:ext cx="6440805" cy="7728585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1404,7 +1963,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1419,21 +1978,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17516475"/>
-          <a:ext cx="6498590" cy="9067800"/>
+          <a:ext cx="6572250" cy="9067800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1442,7 +1992,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1464,7 +2014,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1478,7 +2028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3718560"/>
-          <a:ext cx="5445760" cy="4029075"/>
+          <a:ext cx="5568315" cy="4029075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1508,7 +2058,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1521,7 +2071,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7241540" y="3664585"/>
+          <a:off x="7360920" y="3664585"/>
           <a:ext cx="6616700" cy="4408170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1552,7 +2102,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1566,7 +2116,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8334375"/>
-          <a:ext cx="6667500" cy="4505325"/>
+          <a:ext cx="6790055" cy="4505325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1596,7 +2146,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1609,8 +2159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6771640" y="7391400"/>
-          <a:ext cx="6894195" cy="5389880"/>
+          <a:off x="6894195" y="7391400"/>
+          <a:ext cx="6891020" cy="5389880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1640,7 +2190,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1654,7 +2204,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="323850" y="12742545"/>
-          <a:ext cx="6419850" cy="4168140"/>
+          <a:ext cx="6542405" cy="4168140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,7 +2234,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1697,8 +2247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6371590" y="13426440"/>
-          <a:ext cx="5633085" cy="3465195"/>
+          <a:off x="6494145" y="13426440"/>
+          <a:ext cx="5629910" cy="3465195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1728,7 +2278,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1742,7 +2292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171450" y="16977360"/>
-          <a:ext cx="4810125" cy="3966210"/>
+          <a:ext cx="4915535" cy="3966210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,23 +2585,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1666666666667" customWidth="1"/>
     <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="100.6640625" customWidth="1"/>
+    <col min="7" max="7" width="100.666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2077,7 +2627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" outlineLevel="2">
+    <row r="2" outlineLevel="2" spans="1:6">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2097,7 +2647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" outlineLevel="2">
+    <row r="3" outlineLevel="2" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" outlineLevel="2">
+    <row r="4" outlineLevel="2" spans="1:6">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" outlineLevel="2">
+    <row r="5" outlineLevel="2" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2147,15 +2697,15 @@
       <c r="D5">
         <v>20</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>1078.02</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" outlineLevel="2">
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" outlineLevel="2" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2168,12 +2718,12 @@
       <c r="D6">
         <v>30</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="G6" s="22" t="s">
+      <c r="E6" s="21"/>
+      <c r="G6" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" outlineLevel="2">
+    <row r="7" outlineLevel="2" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2186,9 +2736,9 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:7" outlineLevel="2">
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" outlineLevel="2" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2201,9 +2751,9 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="1:7" outlineLevel="2">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" outlineLevel="2" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2216,9 +2766,9 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" outlineLevel="2">
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" outlineLevel="2" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2231,9 +2781,9 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" outlineLevel="2">
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" outlineLevel="2" spans="1:5">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2246,9 +2796,9 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" outlineLevel="2">
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" outlineLevel="2" spans="1:5">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2261,9 +2811,9 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" outlineLevel="2">
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" outlineLevel="2" spans="1:7">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2279,11 +2829,11 @@
       <c r="E13">
         <v>800</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" outlineLevel="2">
+    <row r="14" outlineLevel="2" spans="1:7">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2302,11 +2852,11 @@
       <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" outlineLevel="2">
+    <row r="15" outlineLevel="2" spans="1:7">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2319,11 +2869,11 @@
       <c r="E15">
         <v>490</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" outlineLevel="2">
+    <row r="16" outlineLevel="2" spans="1:7">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2342,11 +2892,11 @@
       <c r="F16" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" outlineLevel="2">
+    <row r="17" outlineLevel="2" spans="1:7">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2362,11 +2912,11 @@
       <c r="E17">
         <v>210</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" outlineLevel="2">
+    <row r="18" outlineLevel="2" spans="1:7">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2379,11 +2929,11 @@
       <c r="E18">
         <v>189.7</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" outlineLevel="2">
+    <row r="19" outlineLevel="2" spans="1:6">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2403,16 +2953,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" outlineLevel="1">
-      <c r="A20" s="23" t="s">
+    <row r="20" outlineLevel="1" spans="1:5">
+      <c r="A20" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E20">
         <f>SUBTOTAL(9,E2:E19)</f>
-        <v>46289.719999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" outlineLevel="2">
+        <v>46289.72</v>
+      </c>
+    </row>
+    <row r="21" outlineLevel="2" spans="1:6">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2432,7 +2982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" outlineLevel="2">
+    <row r="22" outlineLevel="2" spans="1:6">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2452,7 +3002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" outlineLevel="2">
+    <row r="23" outlineLevel="2" spans="1:6">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2472,7 +3022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" outlineLevel="2">
+    <row r="24" outlineLevel="2" spans="1:6">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2492,7 +3042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7" outlineLevel="2">
+    <row r="25" outlineLevel="2" spans="1:6">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2512,7 +3062,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" outlineLevel="2">
+    <row r="26" outlineLevel="2" spans="1:7">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2531,11 +3081,11 @@
       <c r="F26" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7" outlineLevel="2">
+    <row r="27" outlineLevel="2" spans="1:6">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2552,7 +3102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" outlineLevel="2">
+    <row r="28" outlineLevel="2" spans="1:7">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2571,11 +3121,11 @@
       <c r="F28" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:7" outlineLevel="2">
+    <row r="29" outlineLevel="2" spans="1:7">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -2594,11 +3144,11 @@
       <c r="F29" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" outlineLevel="2">
+    <row r="30" outlineLevel="2" spans="1:6">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2618,7 +3168,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" outlineLevel="2">
+    <row r="31" outlineLevel="2" spans="1:6">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2638,7 +3188,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:7" outlineLevel="2">
+    <row r="32" outlineLevel="2" spans="1:6">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2658,16 +3208,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:7" outlineLevel="1">
-      <c r="A33" s="23" t="s">
+    <row r="33" outlineLevel="1" spans="1:5">
+      <c r="A33" s="24" t="s">
         <v>69</v>
       </c>
       <c r="E33">
         <f>SUBTOTAL(9,E21:E32)</f>
-        <v>41187.800000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" outlineLevel="2">
+        <v>41187.8</v>
+      </c>
+    </row>
+    <row r="34" outlineLevel="2" spans="1:7">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -2683,11 +3233,11 @@
       <c r="E34">
         <v>1006</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:7" outlineLevel="2">
+    <row r="35" outlineLevel="2" spans="1:5">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2695,16 +3245,16 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>134.80000000000001</v>
+        <v>134.8</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>134.80000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" outlineLevel="2">
+        <v>134.8</v>
+      </c>
+    </row>
+    <row r="36" outlineLevel="2" spans="1:6">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -2724,7 +3274,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" outlineLevel="2">
+    <row r="37" outlineLevel="2" spans="1:6">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -2744,7 +3294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:7" outlineLevel="2">
+    <row r="38" outlineLevel="2" spans="1:6">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -2764,7 +3314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:7" outlineLevel="2">
+    <row r="39" outlineLevel="2" spans="1:6">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2784,7 +3334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:7" outlineLevel="2">
+    <row r="40" outlineLevel="2" spans="1:5">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -2801,7 +3351,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:7" outlineLevel="2">
+    <row r="41" outlineLevel="2" spans="1:5">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2818,7 +3368,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:7" outlineLevel="2">
+    <row r="42" outlineLevel="2" spans="1:5">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -2835,7 +3385,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="43" spans="1:7" outlineLevel="2">
+    <row r="43" outlineLevel="2" spans="1:5">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -2852,7 +3402,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="44" spans="1:7" outlineLevel="2">
+    <row r="44" outlineLevel="2" spans="1:6">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -2872,7 +3422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:7" outlineLevel="2">
+    <row r="45" outlineLevel="2" spans="1:5">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2889,7 +3439,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="46" spans="1:7" outlineLevel="2">
+    <row r="46" outlineLevel="2" spans="1:5">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -2906,7 +3456,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:7" outlineLevel="2">
+    <row r="47" outlineLevel="2" spans="1:5">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -2923,7 +3473,7 @@
         <v>475.54</v>
       </c>
     </row>
-    <row r="48" spans="1:7" outlineLevel="2">
+    <row r="48" outlineLevel="2" spans="1:6">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -2943,7 +3493,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:7" outlineLevel="2">
+    <row r="49" outlineLevel="2" spans="1:7">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -2951,19 +3501,19 @@
         <v>90</v>
       </c>
       <c r="C49">
-        <v>316.39999999999998</v>
+        <v>316.4</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>316.39999999999998</v>
-      </c>
-      <c r="G49" s="21" t="s">
+        <v>316.4</v>
+      </c>
+      <c r="G49" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" outlineLevel="2">
+    <row r="50" outlineLevel="2" spans="1:7">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -2973,11 +3523,11 @@
       <c r="E50">
         <v>860.4</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G50" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" outlineLevel="2">
+    <row r="51" outlineLevel="2" spans="1:7">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -2996,21 +3546,21 @@
       <c r="F51" t="s">
         <v>95</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:7" outlineLevel="1">
-      <c r="A52" s="23" t="s">
+    <row r="52" outlineLevel="1" spans="1:7">
+      <c r="A52" s="24" t="s">
         <v>97</v>
       </c>
       <c r="E52">
         <f>SUBTOTAL(9,E34:E51)</f>
         <v>11296.14</v>
       </c>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="1:7" outlineLevel="2">
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" outlineLevel="2" spans="1:7">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -3026,11 +3576,11 @@
       <c r="E53">
         <v>1300</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:7" outlineLevel="2">
+    <row r="54" outlineLevel="2" spans="1:7">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -3049,11 +3599,11 @@
       <c r="F54" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:7" outlineLevel="2">
+    <row r="55" outlineLevel="2" spans="1:7">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3072,11 +3622,11 @@
       <c r="F55" t="s">
         <v>105</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:7" outlineLevel="2">
+    <row r="56" outlineLevel="2" spans="1:7">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -3092,11 +3642,11 @@
       <c r="E56">
         <v>249</v>
       </c>
-      <c r="G56" s="21" t="s">
+      <c r="G56" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:7" outlineLevel="2">
+    <row r="57" outlineLevel="2" spans="1:7">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -3112,11 +3662,11 @@
       <c r="E57">
         <v>477</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:7" outlineLevel="2">
+    <row r="58" outlineLevel="2" spans="1:7">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -3132,11 +3682,11 @@
       <c r="E58">
         <v>1698</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G58" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:7" outlineLevel="2">
+    <row r="59" outlineLevel="2" spans="1:7">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -3152,11 +3702,11 @@
       <c r="E59">
         <v>2700</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:7" outlineLevel="2">
+    <row r="60" outlineLevel="2" spans="1:7">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -3172,11 +3722,11 @@
       <c r="E60">
         <v>2700</v>
       </c>
-      <c r="G60" s="21" t="s">
+      <c r="G60" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:7" outlineLevel="2">
+    <row r="61" outlineLevel="2" spans="1:5">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -3193,7 +3743,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="62" spans="1:7" outlineLevel="2">
+    <row r="62" outlineLevel="2" spans="1:7">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -3209,11 +3759,11 @@
       <c r="E62">
         <v>799</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:7" outlineLevel="2">
+    <row r="63" outlineLevel="2" spans="1:5">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -3230,7 +3780,7 @@
         <v>2306.9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" outlineLevel="2">
+    <row r="64" outlineLevel="2" spans="1:7">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -3246,11 +3796,11 @@
       <c r="E64">
         <v>1163</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G64" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:7" outlineLevel="2">
+    <row r="65" outlineLevel="2" spans="1:6">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -3264,7 +3814,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:7" outlineLevel="2">
+    <row r="66" outlineLevel="2" spans="1:7">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -3274,11 +3824,11 @@
       <c r="E66">
         <v>628</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:7" outlineLevel="2">
+    <row r="67" outlineLevel="2" spans="1:6">
       <c r="A67" t="s">
         <v>98</v>
       </c>
@@ -3298,8 +3848,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:7" outlineLevel="1">
-      <c r="A68" s="23" t="s">
+    <row r="68" outlineLevel="1" spans="1:5">
+      <c r="A68" s="24" t="s">
         <v>128</v>
       </c>
       <c r="E68">
@@ -3307,7 +3857,7 @@
         <v>22833.86</v>
       </c>
     </row>
-    <row r="69" spans="1:7" outlineLevel="2">
+    <row r="69" outlineLevel="2" spans="1:7">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -3323,11 +3873,11 @@
       <c r="E69">
         <v>4019</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G69" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:7" outlineLevel="2">
+    <row r="70" outlineLevel="2" spans="1:7">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -3343,11 +3893,11 @@
       <c r="E70">
         <v>2162.83</v>
       </c>
-      <c r="G70" s="22" t="s">
+      <c r="G70" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:7" outlineLevel="2">
+    <row r="71" outlineLevel="2" spans="1:7">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -3363,11 +3913,11 @@
       <c r="E71">
         <v>1441.99</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G71" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:7" outlineLevel="2">
+    <row r="72" outlineLevel="2" spans="1:7">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -3383,11 +3933,11 @@
       <c r="E72">
         <v>360.42</v>
       </c>
-      <c r="G72" s="21" t="s">
+      <c r="G72" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:7" outlineLevel="2">
+    <row r="73" outlineLevel="2" spans="1:7">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -3406,11 +3956,11 @@
       <c r="F73" t="s">
         <v>139</v>
       </c>
-      <c r="G73" s="21" t="s">
+      <c r="G73" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:7" outlineLevel="2">
+    <row r="74" outlineLevel="2" spans="1:7">
       <c r="A74" t="s">
         <v>129</v>
       </c>
@@ -3426,11 +3976,11 @@
       <c r="E74">
         <v>2248.38</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G74" s="22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:7" outlineLevel="2">
+    <row r="75" outlineLevel="2" spans="1:7">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -3449,11 +3999,11 @@
       <c r="F75" t="s">
         <v>139</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G75" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:7" outlineLevel="2">
+    <row r="76" outlineLevel="2" spans="1:7">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -3472,11 +4022,11 @@
       <c r="F76" t="s">
         <v>139</v>
       </c>
-      <c r="G76" s="22" t="s">
+      <c r="G76" s="23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:7" outlineLevel="2">
+    <row r="77" outlineLevel="2" spans="1:7">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -3484,19 +4034,19 @@
         <v>147</v>
       </c>
       <c r="C77">
-        <v>588.19000000000005</v>
+        <v>588.19</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77">
-        <v>1176.3800000000001</v>
-      </c>
-      <c r="G77" s="22" t="s">
+        <v>1176.38</v>
+      </c>
+      <c r="G77" s="23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:7" outlineLevel="2">
+    <row r="78" outlineLevel="2" spans="1:7">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -3512,11 +4062,11 @@
       <c r="E78">
         <v>975</v>
       </c>
-      <c r="G78" s="22" t="s">
+      <c r="G78" s="23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:7" outlineLevel="2">
+    <row r="79" outlineLevel="2" spans="1:7">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -3532,11 +4082,11 @@
       <c r="E79">
         <v>1800</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G79" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:7" outlineLevel="2">
+    <row r="80" outlineLevel="2" spans="1:7">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -3546,21 +4096,21 @@
       <c r="E80">
         <v>583</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="23" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:7" outlineLevel="1">
-      <c r="A81" s="23" t="s">
+    <row r="81" outlineLevel="1" spans="1:7">
+      <c r="A81" s="24" t="s">
         <v>155</v>
       </c>
       <c r="E81">
         <f>SUBTOTAL(9,E69:E80)</f>
         <v>21492</v>
       </c>
-      <c r="G81" s="21"/>
-    </row>
-    <row r="82" spans="1:7" outlineLevel="2">
+      <c r="G81" s="22"/>
+    </row>
+    <row r="82" outlineLevel="2" spans="1:5">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -3571,7 +4121,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="83" spans="1:7" outlineLevel="2">
+    <row r="83" outlineLevel="2" spans="1:5">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -3582,7 +4132,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="84" spans="1:7" outlineLevel="2">
+    <row r="84" outlineLevel="2" spans="1:5">
       <c r="A84" t="s">
         <v>156</v>
       </c>
@@ -3593,7 +4143,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="85" spans="1:7" outlineLevel="2">
+    <row r="85" outlineLevel="2" spans="1:6">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -3610,7 +4160,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:7" outlineLevel="2">
+    <row r="86" outlineLevel="2" spans="1:5">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -3621,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" outlineLevel="2">
+    <row r="87" outlineLevel="2" spans="1:6">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -3638,7 +4188,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:7" outlineLevel="2">
+    <row r="88" outlineLevel="2" spans="1:5">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -3649,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" outlineLevel="2">
+    <row r="89" outlineLevel="2" spans="1:5">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -3666,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" outlineLevel="2">
+    <row r="90" outlineLevel="2" spans="1:5">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -3683,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" outlineLevel="2">
+    <row r="91" outlineLevel="2" spans="1:6">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -3700,7 +4250,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:7" outlineLevel="2">
+    <row r="92" outlineLevel="2" spans="1:4">
       <c r="A92" t="s">
         <v>156</v>
       </c>
@@ -3714,8 +4264,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:7" outlineLevel="1">
-      <c r="A93" s="23" t="s">
+    <row r="93" outlineLevel="1" spans="1:5">
+      <c r="A93" s="24" t="s">
         <v>170</v>
       </c>
       <c r="E93">
@@ -3723,7 +4273,7 @@
         <v>11145</v>
       </c>
     </row>
-    <row r="94" spans="1:7" outlineLevel="2">
+    <row r="94" outlineLevel="2" spans="1:6">
       <c r="A94" t="s">
         <v>171</v>
       </c>
@@ -3743,7 +4293,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:7" outlineLevel="2">
+    <row r="95" outlineLevel="2" spans="1:5">
       <c r="A95" t="s">
         <v>171</v>
       </c>
@@ -3754,13 +4304,13 @@
         <v>1300</v>
       </c>
       <c r="D95">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="E95">
         <v>8022</v>
       </c>
     </row>
-    <row r="96" spans="1:7" outlineLevel="2">
+    <row r="96" outlineLevel="2" spans="1:5">
       <c r="A96" t="s">
         <v>171</v>
       </c>
@@ -3777,7 +4327,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="97" spans="1:6" outlineLevel="2">
+    <row r="97" outlineLevel="2" spans="1:6">
       <c r="A97" t="s">
         <v>171</v>
       </c>
@@ -3797,7 +4347,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="1:6" outlineLevel="2">
+    <row r="98" outlineLevel="2" spans="1:6">
       <c r="A98" t="s">
         <v>171</v>
       </c>
@@ -3810,11 +4360,11 @@
       <c r="E98" s="25">
         <v>39565</v>
       </c>
-      <c r="F98" s="24" t="s">
+      <c r="F98" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:6" outlineLevel="2">
+    <row r="99" outlineLevel="2" spans="1:6">
       <c r="A99" t="s">
         <v>171</v>
       </c>
@@ -3825,9 +4375,9 @@
         <v>1</v>
       </c>
       <c r="E99" s="25"/>
-      <c r="F99" s="24"/>
-    </row>
-    <row r="100" spans="1:6" outlineLevel="2">
+      <c r="F99" s="21"/>
+    </row>
+    <row r="100" outlineLevel="2" spans="1:6">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -3838,9 +4388,9 @@
         <v>1</v>
       </c>
       <c r="E100" s="25"/>
-      <c r="F100" s="24"/>
-    </row>
-    <row r="101" spans="1:6" outlineLevel="2">
+      <c r="F100" s="21"/>
+    </row>
+    <row r="101" outlineLevel="2" spans="1:6">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -3851,9 +4401,9 @@
         <v>4</v>
       </c>
       <c r="E101" s="25"/>
-      <c r="F101" s="24"/>
-    </row>
-    <row r="102" spans="1:6" outlineLevel="2">
+      <c r="F101" s="21"/>
+    </row>
+    <row r="102" outlineLevel="2" spans="1:5">
       <c r="A102" t="s">
         <v>171</v>
       </c>
@@ -3870,7 +4420,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="103" spans="1:6" outlineLevel="2">
+    <row r="103" outlineLevel="2" spans="1:5">
       <c r="A103" t="s">
         <v>171</v>
       </c>
@@ -3881,8 +4431,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:6" outlineLevel="1">
-      <c r="A104" s="23" t="s">
+    <row r="104" outlineLevel="1" spans="1:5">
+      <c r="A104" s="24" t="s">
         <v>185</v>
       </c>
       <c r="E104">
@@ -3890,7 +4440,7 @@
         <v>76519</v>
       </c>
     </row>
-    <row r="105" spans="1:6" outlineLevel="2">
+    <row r="105" outlineLevel="2" spans="1:6">
       <c r="A105" t="s">
         <v>186</v>
       </c>
@@ -3907,7 +4457,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:6" outlineLevel="2">
+    <row r="106" outlineLevel="2" spans="1:5">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -3918,7 +4468,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="107" spans="1:6" outlineLevel="2">
+    <row r="107" outlineLevel="2" spans="1:6">
       <c r="A107" t="s">
         <v>186</v>
       </c>
@@ -3935,7 +4485,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:6" outlineLevel="2">
+    <row r="108" outlineLevel="2" spans="1:6">
       <c r="A108" t="s">
         <v>186</v>
       </c>
@@ -3952,8 +4502,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="1:6" outlineLevel="1">
-      <c r="A109" s="23" t="s">
+    <row r="109" outlineLevel="1" spans="1:5">
+      <c r="A109" s="24" t="s">
         <v>191</v>
       </c>
       <c r="E109">
@@ -3961,7 +4511,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="110" spans="1:6" outlineLevel="2">
+    <row r="110" outlineLevel="2" spans="1:6">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -3978,7 +4528,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:6" outlineLevel="2">
+    <row r="111" outlineLevel="2" spans="1:6">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -3995,8 +4545,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:6" outlineLevel="1">
-      <c r="A112" s="23" t="s">
+    <row r="112" outlineLevel="1" spans="1:5">
+      <c r="A112" s="24" t="s">
         <v>195</v>
       </c>
       <c r="E112">
@@ -4004,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" outlineLevel="2">
+    <row r="113" outlineLevel="2" spans="1:5">
       <c r="A113" t="s">
         <v>196</v>
       </c>
@@ -4021,7 +4571,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="114" spans="1:7" outlineLevel="2">
+    <row r="114" outlineLevel="2" spans="1:7">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -4037,11 +4587,11 @@
       <c r="E114">
         <v>4672</v>
       </c>
-      <c r="G114" s="21" t="s">
+      <c r="G114" s="22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="115" spans="1:7" outlineLevel="2">
+    <row r="115" outlineLevel="2" spans="1:7">
       <c r="A115" t="s">
         <v>196</v>
       </c>
@@ -4060,11 +4610,11 @@
       <c r="F115" t="s">
         <v>201</v>
       </c>
-      <c r="G115" s="21" t="s">
+      <c r="G115" s="22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="116" spans="1:7" outlineLevel="2">
+    <row r="116" outlineLevel="2" spans="1:5">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -4081,7 +4631,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="117" spans="1:7" outlineLevel="2">
+    <row r="117" outlineLevel="2" spans="1:5">
       <c r="A117" t="s">
         <v>196</v>
       </c>
@@ -4098,7 +4648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:7" outlineLevel="2">
+    <row r="118" outlineLevel="2" spans="1:5">
       <c r="A118" t="s">
         <v>196</v>
       </c>
@@ -4115,7 +4665,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:7" outlineLevel="2">
+    <row r="119" outlineLevel="2" spans="1:5">
       <c r="A119" t="s">
         <v>196</v>
       </c>
@@ -4132,7 +4682,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="120" spans="1:7" outlineLevel="2">
+    <row r="120" outlineLevel="2" spans="1:5">
       <c r="A120" t="s">
         <v>196</v>
       </c>
@@ -4149,7 +4699,7 @@
         <v>717.82</v>
       </c>
     </row>
-    <row r="121" spans="1:7" outlineLevel="2">
+    <row r="121" outlineLevel="2" spans="1:5">
       <c r="A121" t="s">
         <v>196</v>
       </c>
@@ -4166,7 +4716,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:7" outlineLevel="2">
+    <row r="122" outlineLevel="2" spans="1:5">
       <c r="A122" t="s">
         <v>196</v>
       </c>
@@ -4177,7 +4727,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:7" outlineLevel="2">
+    <row r="123" outlineLevel="2" spans="1:5">
       <c r="A123" t="s">
         <v>196</v>
       </c>
@@ -4188,7 +4738,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="124" spans="1:7" outlineLevel="2">
+    <row r="124" outlineLevel="2" spans="1:5">
       <c r="A124" t="s">
         <v>196</v>
       </c>
@@ -4199,7 +4749,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="125" spans="1:7" outlineLevel="2">
+    <row r="125" outlineLevel="2" spans="1:5">
       <c r="A125" t="s">
         <v>196</v>
       </c>
@@ -4210,7 +4760,7 @@
         <v>311.5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" outlineLevel="2">
+    <row r="126" outlineLevel="2" spans="1:6">
       <c r="A126" t="s">
         <v>196</v>
       </c>
@@ -4227,7 +4777,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="1:7" outlineLevel="2">
+    <row r="127" outlineLevel="2" spans="1:5">
       <c r="A127" t="s">
         <v>196</v>
       </c>
@@ -4244,7 +4794,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="128" spans="1:7" outlineLevel="2">
+    <row r="128" outlineLevel="2" spans="1:5">
       <c r="A128" t="s">
         <v>196</v>
       </c>
@@ -4261,7 +4811,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="129" spans="1:5" outlineLevel="2">
+    <row r="129" outlineLevel="2" spans="1:4">
       <c r="A129" t="s">
         <v>196</v>
       </c>
@@ -4275,7 +4825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" outlineLevel="2">
+    <row r="130" outlineLevel="2" spans="1:4">
       <c r="A130" t="s">
         <v>196</v>
       </c>
@@ -4289,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" outlineLevel="2">
+    <row r="131" outlineLevel="2" spans="1:5">
       <c r="A131" t="s">
         <v>196</v>
       </c>
@@ -4300,7 +4850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:5" outlineLevel="2">
+    <row r="132" outlineLevel="2" spans="1:5">
       <c r="A132" t="s">
         <v>196</v>
       </c>
@@ -4311,7 +4861,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:5" outlineLevel="2">
+    <row r="133" outlineLevel="2" spans="1:5">
       <c r="A133" t="s">
         <v>196</v>
       </c>
@@ -4322,7 +4872,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="134" spans="1:5" outlineLevel="2">
+    <row r="134" outlineLevel="2" spans="1:5">
       <c r="A134" t="s">
         <v>196</v>
       </c>
@@ -4333,8 +4883,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="135" spans="1:5" outlineLevel="1">
-      <c r="A135" s="23" t="s">
+    <row r="135" outlineLevel="1" spans="1:5">
+      <c r="A135" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E135">
@@ -4342,8 +4892,8 @@
         <v>19212.72</v>
       </c>
     </row>
-    <row r="136" spans="1:5" outlineLevel="1">
-      <c r="A136" s="23" t="s">
+    <row r="136" outlineLevel="1" spans="1:5">
+      <c r="A136" s="24" t="s">
         <v>222</v>
       </c>
       <c r="E136">
@@ -4351,7 +4901,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="23" t="s">
+      <c r="A137" s="24" t="s">
         <v>223</v>
       </c>
       <c r="E137">
@@ -4365,88 +4915,80 @@
     <mergeCell ref="E98:E101"/>
     <mergeCell ref="F98:F101"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
-    <hyperlink ref="G13" r:id="rId2"/>
-    <hyperlink ref="G14" r:id="rId3"/>
-    <hyperlink ref="G15" r:id="rId4"/>
-    <hyperlink ref="G16" r:id="rId5"/>
-    <hyperlink ref="G17" r:id="rId6"/>
-    <hyperlink ref="G18" r:id="rId7"/>
-    <hyperlink ref="G26" r:id="rId8"/>
-    <hyperlink ref="G28" r:id="rId9"/>
-    <hyperlink ref="G29" r:id="rId10"/>
-    <hyperlink ref="G34" r:id="rId11"/>
-    <hyperlink ref="G49" r:id="rId12"/>
-    <hyperlink ref="G50" r:id="rId13"/>
-    <hyperlink ref="G51" r:id="rId14"/>
-    <hyperlink ref="G53" r:id="rId15"/>
-    <hyperlink ref="G54" r:id="rId16"/>
-    <hyperlink ref="G55" r:id="rId17"/>
-    <hyperlink ref="G56" r:id="rId18"/>
-    <hyperlink ref="G57" r:id="rId19"/>
-    <hyperlink ref="G58" r:id="rId20"/>
-    <hyperlink ref="G59" r:id="rId21"/>
-    <hyperlink ref="G60" r:id="rId22"/>
-    <hyperlink ref="G62" r:id="rId23"/>
-    <hyperlink ref="G64" r:id="rId24"/>
-    <hyperlink ref="G66" r:id="rId25"/>
-    <hyperlink ref="G69" r:id="rId26"/>
-    <hyperlink ref="G70" r:id="rId27"/>
-    <hyperlink ref="G71" r:id="rId28"/>
-    <hyperlink ref="G72" r:id="rId29"/>
-    <hyperlink ref="G73" r:id="rId30"/>
-    <hyperlink ref="G74" r:id="rId31"/>
-    <hyperlink ref="G75" r:id="rId32"/>
-    <hyperlink ref="G76" r:id="rId33"/>
-    <hyperlink ref="G77" r:id="rId34"/>
-    <hyperlink ref="G78" r:id="rId35"/>
-    <hyperlink ref="G79" r:id="rId36"/>
-    <hyperlink ref="G80" r:id="rId37"/>
-    <hyperlink ref="G114" r:id="rId38"/>
-    <hyperlink ref="G115" r:id="rId39"/>
+    <hyperlink ref="G6" r:id="rId1" display="https://detail.tmall.com/item.htm?id=523248157901&amp;spm=a1z09.2.0.0.623e2e8dD0Ilwh&amp;_u=re7ts74d1c"/>
+    <hyperlink ref="G13" r:id="rId2" display="https://item.taobao.com/item.htm?spm=a1z0k.7385997.1997989073.d4919141.ySPsP8&amp;id=522223398144&amp;_u=me7ts75db2"/>
+    <hyperlink ref="G14" r:id="rId3" display="https://item.taobao.com/item.htm?spm=a1z10.5-c-s.w4002-15290942880.107.ef064be6CGOpNS&amp;id=524331502509"/>
+    <hyperlink ref="G15" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.623e2e8dD0Ilwh&amp;id=45597842661&amp;_u=re7ts79c53"/>
+    <hyperlink ref="G16" r:id="rId5" display="https://item.taobao.com/item.htm?spm=a230r.1.14.1.TvJong&amp;id=530276475123&amp;ns=1&amp;abbucket=2#detail"/>
+    <hyperlink ref="G17" r:id="rId6" display="https://item.taobao.com/item.htm?spm=a1z10.5-c-s.w4002-15290942880.34.184c7023TNzzGe&amp;id=544536087803"/>
+    <hyperlink ref="G18" r:id="rId7" display="https://detail.tmall.com/item.htm?id=44861639443&amp;spm=a1z09.2.0.0.623e2e8dD0Ilwh&amp;_u=re7ts78419"/>
+    <hyperlink ref="G26" r:id="rId8" display="https://detail.tmall.com/item.htm?id=540398348368&amp;spm=a1z09.2.0.0.623e2e8dN3mVSO&amp;_u=re7ts7c1b9&amp;skuId=3574887932214"/>
+    <hyperlink ref="G28" r:id="rId9" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.3.i82jI9&amp;id=532889905583&amp;cm_id=140105335569ed55e27b&amp;_u=ve7ts7c0ed&amp;abbucket=2"/>
+    <hyperlink ref="G29" r:id="rId10" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.623e2e8dN3mVSO&amp;id=544513257746&amp;_u=re7ts7ec56"/>
+    <hyperlink ref="G34" r:id="rId11" display="https://item.taobao.com/item.htm?spm=a1z10.5-c-s.w4002-15007035385.12.RXsIxo&amp;id=9720469063"/>
+    <hyperlink ref="G49" r:id="rId12" display="https://detail.tmall.com/item.htm?id=43988653588&amp;spm=a1z09.2.0.0.623e2e8dN3mVSO&amp;_u=re7ts790f8&amp;sku_properties=13381687:10122;122276201:50792021"/>
+    <hyperlink ref="G50" r:id="rId13" display="https://item.taobao.com/item.htm?spm=a1z10.5-c-s.w4002-18045194854.12.679a7eebn3wQFX&amp;id=546290558017"/>
+    <hyperlink ref="G51" r:id="rId14" display="https://detail.tmall.com/item.htm?id=42397478450&amp;spm=a1z09.2.0.0.623e2e8dN3mVSO&amp;_u=re7ts7b9b6"/>
+    <hyperlink ref="G53" r:id="rId15" display="https://detail.tmall.com/item.htm?id=540281837572&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152321_367_1243354588&amp;pvid=10_60.177.174.199_533_1522152259962"/>
+    <hyperlink ref="G54" r:id="rId16" display="https://detail.tmall.com/item.htm?spm=a1z0d.6639537.1997196601.4.BELTYy&amp;id=37120992358"/>
+    <hyperlink ref="G55" r:id="rId17" display="https://detail.tmall.com/item.htm?spm=a1z0d.6639537.1997196601.13.BELTYy&amp;id=2428551820"/>
+    <hyperlink ref="G56" r:id="rId18" display="https://detail.tmall.com/item.htm?id=527421172519&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152428_229_343559902&amp;pvid=10_60.177.174.199_562_1522152411619&amp;skuId=3138135278957"/>
+    <hyperlink ref="G57" r:id="rId19" display="https://detail.tmall.com/item.htm?id=37860507728&amp;spm=a1z09.2.0.0.623e2e8dN3mVSO&amp;_u=re7ts72ebe"/>
+    <hyperlink ref="G58" r:id="rId20" display="https://detail.tmall.com/item.htm?spm=a1z10.5-b-s.w4011-15376707562.68.61ee61857GqTwZ&amp;id=539323621514&amp;rn=12c55e85f568e14ed1db56e9c03c9295&amp;abbucket=6"/>
+    <hyperlink ref="G59" r:id="rId21" display="https://detail.tmall.com/item.htm?id=527971184964&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152595_383_268680415&amp;pvid=10_60.177.174.199_525_1522152566451"/>
+    <hyperlink ref="G60" r:id="rId21" display="https://detail.tmall.com/item.htm?id=527971184964&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152595_383_268680415&amp;pvid=10_60.177.174.199_525_1522152566451"/>
+    <hyperlink ref="G62" r:id="rId22" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b-s.w5003-15237289667.6.171e1b39B5ofS0&amp;id=528277517706&amp;scene=taobao_shop"/>
+    <hyperlink ref="G64" r:id="rId23" display="https://detail.tmall.com/item.htm?id=542335131476&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152739_316_1334848050&amp;pvid=10_60.177.174.199_554_1522152726469&amp;sku_properties=21433:109463"/>
+    <hyperlink ref="G66" r:id="rId24" display="https://detail.tmall.com/item.htm?id=537508161615&amp;ali_trackid=2:mm_16284006_5664864_19136524:1522152809_278_106584213&amp;pvid=10_60.177.174.199_427_1522152789540&amp;skuId=3682870431512"/>
+    <hyperlink ref="G69" r:id="rId25" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-12870092140.14.pYIN0k&amp;id=537478575472&amp;pvid=9c88b891-f055-49b8-99ea-ccf892824afa&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;pos=3&amp;skuId=323"/>
+    <hyperlink ref="G70" r:id="rId26" display="https://detail.tmall.com/item.htm?spm=a1z10.3-b.w4011-12822349212.102.O3SFXP&amp;id=537237558563&amp;rn=e65be398d169130e77c439f45dc5623e&amp;abbucket=14&amp;skuId=3222394132824"/>
+    <hyperlink ref="G71" r:id="rId27" display="https://detail.tmall.com/item.htm?spm=a1z10.3-b-s.w4011-15423722056.97.VzzwdT&amp;id=24760148273&amp;rn=30b8c17b3540cc2db1f8de2f2da21cd2&amp;abbucket=18&amp;sku_properties=29112:16541580"/>
+    <hyperlink ref="G72" r:id="rId28" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-3405602524.2.ACGmfz&amp;id=520630670941&amp;pvid=2d3de916-e0f2-477a-b19f-13ae403180c9&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;aldid=Kz7bA9vX&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;po"/>
+    <hyperlink ref="G73" r:id="rId29" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-7904971962.6.CL0i15&amp;id=45844286272&amp;pvid=8e8d33c4-b5e2-4355-8c82-7ae33c7fa200&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;aldid=JOoRRj94&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;pos"/>
+    <hyperlink ref="G74" r:id="rId30" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-3405763066.4.CL0i15&amp;id=39171103422&amp;pvid=9f36569f-a664-4fb8-be35-ec123e8d558d&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;aldid=VVlmX9gB&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;pos"/>
+    <hyperlink ref="G75" r:id="rId31" display="https://detail.tmall.com/item.htm?spm=a1z10.3-b.w4011-12822349212.59.4LHCFI&amp;id=522921852322&amp;rn=31a92bb747e0dc800bad0b27dfff5ada&amp;abbucket=14&amp;skuId=3205374039585"/>
+    <hyperlink ref="G76" r:id="rId32" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-14544409964.12.3PuT46&amp;id=532192334070&amp;pvid=88232d3b-8726-4cfe-9393-ec08e8f4c4d7&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;aldid=0JywTPlr&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;"/>
+    <hyperlink ref="G77" r:id="rId33" display="https://detail.tmall.com/item.htm?spm=a1z10.4-b.w4004-12870247179.2.ycqJXh&amp;id=522915578220&amp;pvid=117ebbd9-9346-4450-8027-9438b08212b3&amp;abbucket=_AB-M130_B19&amp;acm=03131.1003.1.702582&amp;aldid=4GJ29BRn&amp;abtest=_AB-LR130-PR130&amp;scm=1007.12940.25805.100200300000000&amp;p"/>
+    <hyperlink ref="G78" r:id="rId34" display="https://detail.tmall.com/item.htm?id=35481983854&amp;spm=a1z09.2.0.0.623e2e8dTRDdcb&amp;_u=re7ts75486&amp;sku_properties=10187648:21959"/>
+    <hyperlink ref="G79" r:id="rId35" display="https://detail.tmall.com/item.htm?id=537821160532&amp;spm=a1z09.2.0.0.623e2e8dTRDdcb&amp;_u=re7ts72c8c"/>
+    <hyperlink ref="G80" r:id="rId36" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.623e2e8dTRDdcb&amp;id=542165901380&amp;_u=re7ts7b3d4"/>
+    <hyperlink ref="G114" r:id="rId37" display="https://detail.tmall.com/item.htm?id=45367207708&amp;spm=a1z09.2.0.0.pD8sYY&amp;_u=se7ts762b0&amp;skuId=3231264644084"/>
+    <hyperlink ref="G115" r:id="rId38" display="https://detail.tmall.com/item.htm?id=37120992358&amp;spm=a1z09.2.0.0.uh0IEr&amp;_u=be7ts7cb7e"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="3" customWidth="1"/>
     <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="10.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.3333333333333" style="3" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="10.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="3:6">
+      <c r="C1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -4477,7 +5019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4507,7 +5049,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4538,7 +5080,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -4566,7 +5108,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -4581,7 +5123,7 @@
       </c>
       <c r="E6" s="19">
         <f t="shared" si="1"/>
-        <v>216.20000000000002</v>
+        <v>216.2</v>
       </c>
       <c r="F6" s="4">
         <v>10.81</v>
@@ -4589,13 +5131,13 @@
       <c r="G6" s="4">
         <v>20</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="19">
         <f>936.26+141.76</f>
         <v>1078.02</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4618,10 +5160,10 @@
       <c r="G7" s="4">
         <v>30</v>
       </c>
-      <c r="H7" s="27"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4636,7 +5178,7 @@
       </c>
       <c r="E8" s="19">
         <f t="shared" si="1"/>
-        <v>269.54999999999995</v>
+        <v>269.55</v>
       </c>
       <c r="F8" s="4">
         <v>53.91</v>
@@ -4644,10 +5186,10 @@
       <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="27"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4670,10 +5212,10 @@
       <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="27"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4696,10 +5238,10 @@
       <c r="G10" s="4">
         <v>3</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -4722,10 +5264,10 @@
       <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
+    <row r="12" s="1" customFormat="1" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -4748,10 +5290,10 @@
       <c r="G12" s="4">
         <v>2</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
+    <row r="13" s="1" customFormat="1" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -4774,10 +5316,10 @@
       <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
+    <row r="14" s="1" customFormat="1" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +5348,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1">
+    <row r="15" s="1" customFormat="1" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -4837,7 +5379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1">
+    <row r="16" s="1" customFormat="1" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -4856,7 +5398,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1">
+    <row r="17" s="1" customFormat="1" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4886,7 +5428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1">
+    <row r="18" s="1" customFormat="1" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4908,7 +5450,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1">
+    <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4927,7 +5469,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1">
+    <row r="20" s="1" customFormat="1" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -4958,7 +5500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1">
+    <row r="21" s="1" customFormat="1" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -4987,7 +5529,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>223</v>
       </c>
@@ -4997,70 +5539,64 @@
       </c>
       <c r="H22" s="12">
         <f>SUM(H3:H21)</f>
-        <v>46289.719999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>46289.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
         <v>229</v>
       </c>
       <c r="H25" s="12">
         <f>H22</f>
-        <v>46289.719999999994</v>
+        <v>46289.72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22"/>
+  <autoFilter ref="A2:I22">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="H6:H13"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="3" customWidth="1"/>
     <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="10.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.3333333333333" style="3" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="10.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.3333333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="23.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="3:6">
+      <c r="C1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5089,7 +5625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
@@ -5120,7 +5656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
@@ -5142,7 +5678,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -5173,7 +5709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -5204,7 +5740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -5235,7 +5771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -5266,7 +5802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -5285,7 +5821,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" spans="1:16">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -5318,7 +5854,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -5349,7 +5885,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1">
+    <row r="12" s="1" customFormat="1" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -5380,7 +5916,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1">
+    <row r="13" s="1" customFormat="1" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -5410,7 +5946,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -5441,7 +5977,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -5472,7 +6008,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -5521,7 +6057,7 @@
       </c>
       <c r="H19" s="12">
         <f>SUM(H3:H18)</f>
-        <v>40888.800000000003</v>
+        <v>40888.8</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5530,10 +6066,10 @@
       </c>
       <c r="H21" s="12">
         <f>SUM(H3:H13)</f>
-        <v>35888.800000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>35888.8</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
       <c r="D24"/>
     </row>
     <row r="48" spans="2:3">
@@ -5544,15 +6080,15 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="16:16">
       <c r="P49">
         <v>4099</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:2">
       <c r="B50"/>
     </row>
-    <row r="95" spans="1:3" ht="17">
+    <row r="95" ht="17.4" spans="1:3">
       <c r="A95" s="20" t="s">
         <v>235</v>
       </c>
@@ -5569,52 +6105,45 @@
   </sheetData>
   <autoFilter ref="A2:I19">
     <sortState ref="A2:I19">
-      <sortCondition sortBy="cellColor" ref="H2:H19" dxfId="5"/>
+      <sortCondition ref="H2:H19" sortBy="cellColor" dxfId="0"/>
     </sortState>
+    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.1666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.1666666666667" style="3" customWidth="1"/>
     <col min="3" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="18.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.8333333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="3:6">
+      <c r="C1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -5645,7 +6174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -5674,7 +6203,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>73</v>
@@ -5690,18 +6219,18 @@
         <v>188</v>
       </c>
       <c r="F4" s="4">
-        <v>134.80000000000001</v>
+        <v>134.8</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
-        <v>134.80000000000001</v>
+        <v>134.8</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -5732,7 +6261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
@@ -5763,7 +6292,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
@@ -5794,7 +6323,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1">
+    <row r="8" s="18" customFormat="1" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>70</v>
       </c>
@@ -5825,7 +6354,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -5854,7 +6383,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -5883,7 +6412,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="18" customFormat="1">
+    <row r="11" s="18" customFormat="1" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -5912,7 +6441,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
+    <row r="12" s="1" customFormat="1" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -5941,7 +6470,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
+    <row r="13" s="1" customFormat="1" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
@@ -5972,7 +6501,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
+    <row r="14" s="1" customFormat="1" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -6002,7 +6531,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1">
+    <row r="15" s="2" customFormat="1" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -6024,7 +6553,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1">
+    <row r="16" s="2" customFormat="1" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
@@ -6046,7 +6575,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1">
+    <row r="17" s="1" customFormat="1" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -6077,7 +6606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1">
+    <row r="18" s="1" customFormat="1" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -6095,18 +6624,18 @@
         <v>500</v>
       </c>
       <c r="F18" s="4">
-        <v>316.39999999999998</v>
+        <v>316.4</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="1"/>
-        <v>316.39999999999998</v>
+        <v>316.4</v>
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1">
+    <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -6123,7 +6652,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1">
+    <row r="20" s="1" customFormat="1" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -6153,7 +6682,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -6166,7 +6695,7 @@
         <v>11296.14</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>229</v>
       </c>
@@ -6175,7 +6704,7 @@
         <v>11296.14</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -6183,7 +6712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -6203,51 +6732,44 @@
   </sheetData>
   <autoFilter ref="A2:I20">
     <sortState ref="A2:I20">
-      <sortCondition sortBy="cellColor" ref="H2:H19" dxfId="4"/>
+      <sortCondition ref="H2:H19" sortBy="cellColor" dxfId="1"/>
     </sortState>
+    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1666666666667" style="3" customWidth="1"/>
     <col min="3" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="15.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.1666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="3:6">
+      <c r="C1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -6332,7 +6854,7 @@
       </c>
       <c r="H4" s="4">
         <f>G4*F4+115.9</f>
-        <v>239.60000000000002</v>
+        <v>239.6</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>102</v>
@@ -6457,7 +6979,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>98</v>
       </c>
@@ -6486,7 +7008,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>98</v>
       </c>
@@ -6515,7 +7037,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>98</v>
       </c>
@@ -6572,7 +7094,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
+    <row r="13" s="1" customFormat="1" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>98</v>
       </c>
@@ -6601,7 +7123,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
+    <row r="14" s="1" customFormat="1" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>98</v>
       </c>
@@ -6623,7 +7145,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1">
+    <row r="15" s="1" customFormat="1" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>98</v>
       </c>
@@ -6641,7 +7163,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1">
+    <row r="16" s="1" customFormat="1" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>98</v>
       </c>
@@ -6658,7 +7180,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1">
+    <row r="17" s="1" customFormat="1" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>98</v>
       </c>
@@ -6689,7 +7211,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -6702,7 +7224,7 @@
         <v>22833.86</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>229</v>
       </c>
@@ -6711,7 +7233,7 @@
         <v>21633.86</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>238</v>
       </c>
@@ -6722,51 +7244,44 @@
   </sheetData>
   <autoFilter ref="A2:I18">
     <sortState ref="A2:I18">
-      <sortCondition sortBy="cellColor" ref="H2:H15" dxfId="3"/>
+      <sortCondition ref="H2:H15" sortBy="cellColor" dxfId="2"/>
     </sortState>
+    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="15.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1666666666667" style="3" customWidth="1"/>
     <col min="3" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="27.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.8333333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="3:6">
+      <c r="C1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -6797,7 +7312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>129</v>
       </c>
@@ -6828,7 +7343,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>129</v>
       </c>
@@ -6857,7 +7372,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>129</v>
       </c>
@@ -6886,7 +7401,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>129</v>
       </c>
@@ -6915,7 +7430,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>129</v>
       </c>
@@ -6945,7 +7460,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>129</v>
       </c>
@@ -6974,7 +7489,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
@@ -7005,7 +7520,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
@@ -7036,7 +7551,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>129</v>
       </c>
@@ -7054,18 +7569,18 @@
         <v>2760</v>
       </c>
       <c r="F11" s="4">
-        <v>588.19000000000005</v>
+        <v>588.19</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="1"/>
-        <v>1176.3800000000001</v>
+        <v>1176.38</v>
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
+    <row r="12" s="1" customFormat="1" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>129</v>
       </c>
@@ -7090,7 +7605,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
+    <row r="13" s="1" customFormat="1" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>129</v>
       </c>
@@ -7114,7 +7629,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
+    <row r="14" s="1" customFormat="1" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>129</v>
       </c>
@@ -7131,10 +7646,10 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:1">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:1">
       <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:8">
@@ -7168,47 +7683,39 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="18.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.1666666666667" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="9.5" style="3" customWidth="1"/>
     <col min="5" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="15.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.1666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="3:6">
+      <c r="C1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -7260,7 +7767,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
+    <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>156</v>
       </c>
@@ -7295,7 +7802,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -7323,7 +7830,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>156</v>
       </c>
@@ -7348,7 +7855,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>156</v>
       </c>
@@ -7376,7 +7883,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>156</v>
       </c>
@@ -7401,7 +7908,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
@@ -7423,7 +7930,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
@@ -7444,7 +7951,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
+    <row r="12" s="1" customFormat="1" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>156</v>
       </c>
@@ -7472,7 +7979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
+    <row r="13" s="1" customFormat="1" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>156</v>
       </c>
@@ -7494,13 +8001,13 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E14" s="12">
         <f>SUM(E3:E13)</f>
-        <v>17037.669999999998</v>
+        <v>17037.67</v>
       </c>
       <c r="H14" s="12">
         <f>SUM(H3:H13)</f>
@@ -7516,7 +8023,7 @@
         <v>11145</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:7">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
         <v>239</v>
@@ -7537,7 +8044,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>245</v>
       </c>
@@ -7555,11 +8062,11 @@
       </c>
       <c r="E32" s="14">
         <f t="shared" ref="E32:E37" si="0">B32/C32</f>
-        <v>42.112158333333333</v>
+        <v>42.1121583333333</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" ref="F32:F37" si="1">B32/D32</f>
-        <v>84.224316666666667</v>
+        <v>84.2243166666667</v>
       </c>
       <c r="G32" s="15">
         <v>44</v>
@@ -7582,17 +8089,17 @@
       </c>
       <c r="E33" s="14">
         <f t="shared" si="0"/>
-        <v>9.4269444444444446</v>
+        <v>9.42694444444444</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="1"/>
-        <v>9.4269444444444446</v>
+        <v>9.42694444444444</v>
       </c>
       <c r="G33" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="26">
+    <row r="34" ht="24" spans="1:7">
       <c r="A34" s="14" t="s">
         <v>247</v>
       </c>
@@ -7610,17 +8117,17 @@
       </c>
       <c r="E34" s="14">
         <f t="shared" si="0"/>
-        <v>197.53110000000001</v>
+        <v>197.5311</v>
       </c>
       <c r="F34" s="14">
         <f t="shared" si="1"/>
-        <v>197.53110000000001</v>
+        <v>197.5311</v>
       </c>
       <c r="G34" s="15">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="26">
+    <row r="35" ht="24" spans="1:7">
       <c r="A35" s="16" t="s">
         <v>248</v>
       </c>
@@ -7648,7 +8155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="26">
+    <row r="36" ht="24" spans="1:7">
       <c r="A36" s="16" t="s">
         <v>249</v>
       </c>
@@ -7666,11 +8173,11 @@
       </c>
       <c r="E36" s="14">
         <f t="shared" si="0"/>
-        <v>39.792222222222222</v>
+        <v>39.7922222222222</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" si="1"/>
-        <v>79.584444444444443</v>
+        <v>79.5844444444444</v>
       </c>
       <c r="G36" s="14">
         <v>42</v>
@@ -7694,11 +8201,11 @@
       </c>
       <c r="E37" s="14">
         <f t="shared" si="0"/>
-        <v>21.280555555555555</v>
+        <v>21.2805555555556</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" si="1"/>
-        <v>42.56111111111111</v>
+        <v>42.5611111111111</v>
       </c>
       <c r="G37" s="14">
         <v>26</v>
@@ -7722,13 +8229,13 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" ht="26">
+    <row r="40" ht="24" spans="1:7">
       <c r="A40" s="17" t="s">
         <v>251</v>
       </c>
       <c r="B40" s="13">
         <f>(B32+B34+B35)/1000000</f>
-        <v>55.035975000000001</v>
+        <v>55.035975</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13">
@@ -7739,13 +8246,13 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="1:7" ht="26">
+    <row r="41" ht="24" spans="1:7">
       <c r="A41" s="17" t="s">
         <v>252</v>
       </c>
       <c r="B41" s="13">
         <f>(B33+B36+B37)/1000000</f>
-        <v>14.386799999999999</v>
+        <v>14.3868</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13">
@@ -7759,53 +8266,46 @@
   </sheetData>
   <autoFilter ref="A2:I14">
     <sortState ref="A2:I14">
-      <sortCondition sortBy="cellColor" ref="H2:H14" dxfId="2"/>
+      <sortCondition ref="H2:H14" sortBy="cellColor" dxfId="3"/>
     </sortState>
+    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="19.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.1666666666667" style="3" customWidth="1"/>
     <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" style="3" customWidth="1"/>
     <col min="6" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="15.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.1666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="3:6">
+      <c r="C1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
@@ -7867,7 +8367,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="8" t="s">
         <v>171</v>
       </c>
@@ -7878,24 +8378,24 @@
         <v>1300</v>
       </c>
       <c r="D4" s="8">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="E4" s="8">
         <f>D4*C4</f>
-        <v>5979.9999999999991</v>
+        <v>5980</v>
       </c>
       <c r="F4" s="8">
         <v>1300</v>
       </c>
       <c r="G4" s="8">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="H4" s="8">
         <v>8022</v>
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="8" t="s">
         <v>171</v>
       </c>
@@ -7998,7 +8498,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="8" t="s">
         <v>171</v>
       </c>
@@ -8022,7 +8522,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="8" t="s">
         <v>171</v>
       </c>
@@ -8046,7 +8546,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" spans="1:9">
       <c r="A11" s="8" t="s">
         <v>186</v>
       </c>
@@ -8063,7 +8563,7 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
+    <row r="12" s="1" customFormat="1" spans="1:9">
       <c r="A12" s="8" t="s">
         <v>186</v>
       </c>
@@ -8093,7 +8593,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
+    <row r="13" s="1" customFormat="1" spans="1:9">
       <c r="A13" s="8" t="s">
         <v>186</v>
       </c>
@@ -8123,7 +8623,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
+    <row r="14" s="1" customFormat="1" spans="1:9">
       <c r="A14" s="8" t="s">
         <v>192</v>
       </c>
@@ -8153,7 +8653,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1">
+    <row r="15" s="1" customFormat="1" spans="1:9">
       <c r="A15" s="8" t="s">
         <v>192</v>
       </c>
@@ -8183,7 +8683,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1">
+    <row r="16" s="1" customFormat="1" spans="1:9">
       <c r="A16" s="8" t="s">
         <v>186</v>
       </c>
@@ -8211,7 +8711,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1">
+    <row r="17" s="1" customFormat="1" spans="1:9">
       <c r="A17" s="11" t="s">
         <v>171</v>
       </c>
@@ -8242,7 +8742,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1">
+    <row r="18" s="1" customFormat="1" spans="1:9">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>184</v>
@@ -8257,7 +8757,7 @@
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1">
+    <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -8268,20 +8768,20 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E20" s="12">
         <f>SUM(E3:E18)</f>
-        <v>67065.399999999994</v>
+        <v>67065.4</v>
       </c>
       <c r="H20" s="12">
         <f>SUM(H3:H19)</f>
         <v>79669</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>229</v>
       </c>
@@ -8290,7 +8790,7 @@
         <v>78008</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>172</v>
       </c>
@@ -8304,7 +8804,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>255</v>
       </c>
@@ -8319,13 +8819,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B29" s="3">
         <f>14210700/1000000</f>
-        <v>14.210699999999999</v>
+        <v>14.2107</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>256</v>
@@ -8334,13 +8834,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B30" s="3">
         <f>8667400/1000000</f>
-        <v>8.6674000000000007</v>
+        <v>8.6674</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>257</v>
@@ -8349,13 +8849,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B31" s="3">
         <f>918000/1000000</f>
-        <v>0.91800000000000004</v>
+        <v>0.918</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>258</v>
@@ -8367,51 +8867,44 @@
   </sheetData>
   <autoFilter ref="A2:I20">
     <sortState ref="A2:I20">
-      <sortCondition sortBy="cellColor" ref="H2:H20" dxfId="1"/>
+      <sortCondition ref="H2:H20" sortBy="cellColor" dxfId="4"/>
     </sortState>
+    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J1:J1048576"/>
+      <selection activeCell="J4" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="15.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1666666666667" style="3" customWidth="1"/>
     <col min="3" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="19.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.3333333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="3:6">
+      <c r="C1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -8473,7 +8966,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>196</v>
       </c>
@@ -8498,7 +8991,7 @@
       </c>
       <c r="H4" s="4">
         <f>G4*F4+367.16</f>
-        <v>665.16000000000008</v>
+        <v>665.16</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>262</v>
@@ -8584,7 +9077,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>196</v>
       </c>
@@ -8605,7 +9098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>196</v>
       </c>
@@ -8627,7 +9120,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>196</v>
       </c>
@@ -8649,7 +9142,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>196</v>
       </c>
@@ -8670,7 +9163,7 @@
         <v>717.82</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
+    <row r="12" s="1" customFormat="1" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>196</v>
       </c>
@@ -8692,7 +9185,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
+    <row r="13" s="1" customFormat="1" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>196</v>
       </c>
@@ -8709,7 +9202,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1">
+    <row r="14" s="1" customFormat="1" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>196</v>
       </c>
@@ -8726,7 +9219,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1">
+    <row r="15" s="1" customFormat="1" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>196</v>
       </c>
@@ -8743,7 +9236,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1">
+    <row r="16" s="1" customFormat="1" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>196</v>
       </c>
@@ -8761,7 +9254,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1">
+    <row r="17" s="1" customFormat="1" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>196</v>
       </c>
@@ -8789,7 +9282,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1">
+    <row r="18" s="1" customFormat="1" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>196</v>
       </c>
@@ -8817,7 +9310,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1">
+    <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>196</v>
       </c>
@@ -8846,7 +9339,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1">
+    <row r="20" s="1" customFormat="1" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>196</v>
       </c>
@@ -8872,7 +9365,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1">
+    <row r="21" s="1" customFormat="1" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>196</v>
       </c>
@@ -8898,7 +9391,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1">
+    <row r="22" s="1" customFormat="1" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>196</v>
       </c>
@@ -8915,7 +9408,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1">
+    <row r="23" s="1" customFormat="1" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>196</v>
       </c>
@@ -8933,7 +9426,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" s="2" customFormat="1">
+    <row r="24" s="2" customFormat="1" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>196</v>
       </c>
@@ -8950,7 +9443,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" s="2" customFormat="1">
+    <row r="25" s="2" customFormat="1" spans="1:9">
       <c r="A25" s="5" t="s">
         <v>196</v>
       </c>
@@ -8967,7 +9460,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
         <v>223</v>
       </c>
@@ -8977,35 +9470,31 @@
       </c>
       <c r="H26" s="3">
         <f>SUM(H3:H24)</f>
-        <v>20257.879999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>20257.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
         <v>229</v>
       </c>
       <c r="H28" s="3">
         <f>SUM(H3:H25)</f>
-        <v>20757.879999999997</v>
+        <v>20757.88</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I26">
     <sortState ref="A2:I26">
-      <sortCondition sortBy="cellColor" ref="H2:H25" dxfId="0"/>
+      <sortCondition ref="H2:H25" sortBy="cellColor" dxfId="5"/>
     </sortState>
+    <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>